--- a/NucRadAnalysisv4.xlsx
+++ b/NucRadAnalysisv4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b40a8285afd6524a/Desktop/OsIrNucRad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b40a8285afd6524a/Documents/GitHub/Os-Ir-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{744B5A07-6C60-493B-BFF7-906CD33F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E33AEE-4554-47F1-9FF3-5A08DB7F332C}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{744B5A07-6C60-493B-BFF7-906CD33F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10B7994D-C0A2-419C-B233-00E8079FA61F}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-885" windowWidth="25440" windowHeight="15390" tabRatio="794" firstSheet="4" activeTab="11" xr2:uid="{81035187-6465-1745-8A26-C08CEE6A9890}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="794" xr2:uid="{81035187-6465-1745-8A26-C08CEE6A9890}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncertainty Budget" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="307">
   <si>
     <t>3s^2 – (3s3p*)_1</t>
   </si>
@@ -1000,6 +1000,9 @@
   <si>
     <t>3D</t>
   </si>
+  <si>
+    <t>measured wavelength</t>
+  </si>
 </sst>
 </file>
 
@@ -1018,9 +1021,16 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="0.000000E+00"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1628,93 +1638,93 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="29" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,105 +1760,105 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="21" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="21" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="21" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="21" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="22" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="22" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1861,613 +1871,613 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="11" fontId="14" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="11" fontId="13" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="19" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="19" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="22" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="14" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="13" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="13" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="21" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="13" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="2" fontId="29" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="4" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="16" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="19" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="14" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="13" fillId="18" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="11" fontId="14" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="22" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="19" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="11" fontId="13" fillId="20" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="21" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="19" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="19" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="13" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="20" borderId="19" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="20" borderId="19" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="17" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="9" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="13" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="16" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="22" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2491,24 +2501,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30260,8 +30271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA2B635-A780-42F1-BE2E-3544AC1BDB20}">
   <dimension ref="A1:CV173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30338,6 +30349,9 @@
       <c r="E1" s="162" t="s">
         <v>196</v>
       </c>
+      <c r="F1" s="465" t="s">
+        <v>306</v>
+      </c>
       <c r="G1" s="168"/>
       <c r="H1" s="201" t="s">
         <v>111</v>
@@ -30426,8 +30440,8 @@
         <f>SQRT(B2+C2)+SQRT(D2)</f>
         <v>1.7637946176179216E-4</v>
       </c>
-      <c r="F2" s="162" t="s">
-        <v>56</v>
+      <c r="F2" s="162">
+        <v>7.4479292782400002</v>
       </c>
       <c r="G2" s="162">
         <v>7.4479292782400002</v>
@@ -30555,8 +30569,8 @@
         <f t="shared" ref="E3:E9" si="0">SQRT(B3+C3)+SQRT(D3)</f>
         <v>1.6867320060035145E-4</v>
       </c>
-      <c r="F3" s="162" t="s">
-        <v>56</v>
+      <c r="F3" s="162">
+        <v>7.2943865687782097</v>
       </c>
       <c r="G3" s="162">
         <v>7.2943865687782097</v>
@@ -30731,8 +30745,8 @@
         <f t="shared" si="0"/>
         <v>1.5036107908573983E-4</v>
       </c>
-      <c r="F4" s="162" t="s">
-        <v>56</v>
+      <c r="F4" s="162">
+        <v>7.6552852889297096</v>
       </c>
       <c r="H4" s="206"/>
       <c r="I4" s="210"/>
@@ -30880,8 +30894,8 @@
         <f t="shared" si="0"/>
         <v>1.6371677902385039E-4</v>
       </c>
-      <c r="F5" s="162" t="s">
-        <v>56</v>
+      <c r="F5" s="162">
+        <v>7.4934984186231697</v>
       </c>
       <c r="H5" s="206"/>
       <c r="I5" s="210"/>
@@ -31045,17 +31059,17 @@
         <f t="shared" si="0"/>
         <v>7.9826623045444367E-4</v>
       </c>
-      <c r="F6" s="162" t="s">
-        <v>56</v>
+      <c r="F6" s="162">
+        <v>7.4485449635772101</v>
       </c>
       <c r="H6" s="206"/>
-      <c r="I6" s="430" t="s">
+      <c r="I6" s="434" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="430"/>
-      <c r="K6" s="430"/>
-      <c r="L6" s="430"/>
-      <c r="M6" s="431"/>
+      <c r="J6" s="434"/>
+      <c r="K6" s="434"/>
+      <c r="L6" s="434"/>
+      <c r="M6" s="435"/>
       <c r="T6" s="162">
         <v>1.06745562130177E-10</v>
       </c>
@@ -31189,8 +31203,8 @@
         <f t="shared" si="0"/>
         <v>2.8932532585583727E-4</v>
       </c>
-      <c r="F7" s="162" t="s">
-        <v>56</v>
+      <c r="F7" s="162">
+        <v>7.2950568327519196</v>
       </c>
       <c r="H7" s="206"/>
       <c r="I7" s="207" t="s">
@@ -31291,6 +31305,9 @@
         <f>SQRT(B8+C8)+SQRT(D8)</f>
         <v>3.0191606736132594E-4</v>
       </c>
+      <c r="F8" s="162">
+        <v>7.6565256435406104</v>
+      </c>
       <c r="H8" s="212"/>
       <c r="I8" s="213">
         <f>100*(I3^2 / $M$3^2)</f>
@@ -31406,6 +31423,9 @@
         <f t="shared" si="0"/>
         <v>4.9596839431458723E-4</v>
       </c>
+      <c r="F9" s="162">
+        <v>7.4646116366453503</v>
+      </c>
       <c r="O9" s="174">
         <v>7.4489999999999998</v>
       </c>
@@ -32248,21 +32268,21 @@
       <c r="CV14" s="176"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="432" t="s">
+      <c r="A15" s="433" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="432"/>
-      <c r="C15" s="432"/>
-      <c r="D15" s="432"/>
-      <c r="E15" s="432"/>
+      <c r="B15" s="433"/>
+      <c r="C15" s="433"/>
+      <c r="D15" s="433"/>
+      <c r="E15" s="433"/>
       <c r="H15" s="330"/>
-      <c r="I15" s="433" t="s">
+      <c r="I15" s="431" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="433"/>
-      <c r="K15" s="433"/>
-      <c r="L15" s="433"/>
-      <c r="M15" s="434"/>
+      <c r="J15" s="431"/>
+      <c r="K15" s="431"/>
+      <c r="L15" s="431"/>
+      <c r="M15" s="432"/>
       <c r="O15" s="174">
         <v>7.4506600000000001</v>
       </c>
@@ -32446,13 +32466,13 @@
         <v>163</v>
       </c>
       <c r="Y16" s="330"/>
-      <c r="Z16" s="433" t="s">
+      <c r="Z16" s="431" t="s">
         <v>204</v>
       </c>
-      <c r="AA16" s="433"/>
-      <c r="AB16" s="433"/>
-      <c r="AC16" s="433"/>
-      <c r="AD16" s="434"/>
+      <c r="AA16" s="431"/>
+      <c r="AB16" s="431"/>
+      <c r="AC16" s="431"/>
+      <c r="AD16" s="432"/>
       <c r="AO16" s="174"/>
       <c r="AP16" s="177"/>
       <c r="AQ16" s="177"/>
@@ -32478,13 +32498,13 @@
       <c r="BH16" s="177"/>
       <c r="BI16" s="176"/>
       <c r="BM16" s="330"/>
-      <c r="BN16" s="433" t="s">
+      <c r="BN16" s="431" t="s">
         <v>204</v>
       </c>
-      <c r="BO16" s="433"/>
-      <c r="BP16" s="433"/>
-      <c r="BQ16" s="433"/>
-      <c r="BR16" s="434"/>
+      <c r="BO16" s="431"/>
+      <c r="BP16" s="431"/>
+      <c r="BQ16" s="431"/>
+      <c r="BR16" s="432"/>
       <c r="CB16" s="174"/>
       <c r="CC16" s="177"/>
       <c r="CD16" s="177"/>
@@ -32862,11 +32882,11 @@
       <c r="AT19" s="215"/>
       <c r="AU19" s="218"/>
       <c r="AV19" s="177"/>
-      <c r="AW19" s="419" t="s">
+      <c r="AW19" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="AX19" s="419"/>
-      <c r="AY19" s="420"/>
+      <c r="AX19" s="425"/>
+      <c r="AY19" s="426"/>
       <c r="AZ19" s="234"/>
       <c r="BA19" s="215"/>
       <c r="BB19" s="218"/>
@@ -32890,11 +32910,11 @@
       <c r="CG19" s="398"/>
       <c r="CH19" s="399"/>
       <c r="CI19" s="177"/>
-      <c r="CJ19" s="419" t="s">
+      <c r="CJ19" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="CK19" s="419"/>
-      <c r="CL19" s="420"/>
+      <c r="CK19" s="425"/>
+      <c r="CL19" s="426"/>
       <c r="CM19" s="234"/>
       <c r="CN19" s="215"/>
       <c r="CO19" s="218"/>
@@ -33375,11 +33395,11 @@
       <c r="AS23" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="AT23" s="422">
+      <c r="AT23" s="423">
         <f>AY12</f>
         <v>3.1556023013464343E-4</v>
       </c>
-      <c r="AU23" s="423">
+      <c r="AU23" s="424">
         <f>100*(AT23/BH12^2)</f>
         <v>96.524724207301006</v>
       </c>
@@ -33395,14 +33415,14 @@
         <f t="shared" si="13"/>
         <v>7.7754279198127536</v>
       </c>
-      <c r="AZ23" s="421" t="s">
+      <c r="AZ23" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="BA23" s="422">
+      <c r="BA23" s="423">
         <f>AY13</f>
         <v>3.1167332905385198E-4</v>
       </c>
-      <c r="BB23" s="423">
+      <c r="BB23" s="424">
         <f>100*BA23/AX29</f>
         <v>97.229008474378347</v>
       </c>
@@ -33428,11 +33448,11 @@
       <c r="CF23" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="CG23" s="435">
+      <c r="CG23" s="438">
         <f>CL12</f>
         <v>0</v>
       </c>
-      <c r="CH23" s="436" t="e">
+      <c r="CH23" s="439" t="e">
         <f>100*(CG23/CU12^2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -33448,14 +33468,14 @@
         <f t="shared" si="15"/>
         <v>0.20083819137161335</v>
       </c>
-      <c r="CM23" s="421" t="s">
+      <c r="CM23" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="CN23" s="422">
+      <c r="CN23" s="423">
         <f>CL13</f>
         <v>1.0353054946360281E-3</v>
       </c>
-      <c r="CO23" s="423">
+      <c r="CO23" s="424">
         <f>100*CN23/CK29</f>
         <v>97.657182782192734</v>
       </c>
@@ -33536,8 +33556,8 @@
         <v>24.288503194440423</v>
       </c>
       <c r="AS24" s="245"/>
-      <c r="AT24" s="422"/>
-      <c r="AU24" s="423"/>
+      <c r="AT24" s="423"/>
+      <c r="AU24" s="424"/>
       <c r="AV24" s="177"/>
       <c r="AW24" s="225" t="s">
         <v>237</v>
@@ -33550,9 +33570,9 @@
         <f t="shared" si="13"/>
         <v>24.465722148560044</v>
       </c>
-      <c r="AZ24" s="422"/>
-      <c r="BA24" s="422"/>
-      <c r="BB24" s="423"/>
+      <c r="AZ24" s="423"/>
+      <c r="BA24" s="423"/>
+      <c r="BB24" s="424"/>
       <c r="BC24" s="177"/>
       <c r="BD24" s="177"/>
       <c r="BE24" s="177"/>
@@ -33573,8 +33593,8 @@
         <v>0</v>
       </c>
       <c r="CF24" s="405"/>
-      <c r="CG24" s="435"/>
-      <c r="CH24" s="436"/>
+      <c r="CG24" s="438"/>
+      <c r="CH24" s="439"/>
       <c r="CI24" s="177"/>
       <c r="CJ24" s="225" t="s">
         <v>237</v>
@@ -33587,9 +33607,9 @@
         <f t="shared" si="15"/>
         <v>74.34378969069698</v>
       </c>
-      <c r="CM24" s="422"/>
-      <c r="CN24" s="422"/>
-      <c r="CO24" s="423"/>
+      <c r="CM24" s="423"/>
+      <c r="CN24" s="423"/>
+      <c r="CO24" s="424"/>
       <c r="CP24" s="177"/>
       <c r="CQ24" s="177"/>
       <c r="CR24" s="177"/>
@@ -33683,8 +33703,8 @@
         <v>64.517114880543588</v>
       </c>
       <c r="AS25" s="245"/>
-      <c r="AT25" s="422"/>
-      <c r="AU25" s="423"/>
+      <c r="AT25" s="423"/>
+      <c r="AU25" s="424"/>
       <c r="AV25" s="177"/>
       <c r="AW25" s="322" t="s">
         <v>269</v>
@@ -33697,9 +33717,9 @@
         <f t="shared" si="13"/>
         <v>64.987858406005543</v>
       </c>
-      <c r="AZ25" s="422"/>
-      <c r="BA25" s="422"/>
-      <c r="BB25" s="423"/>
+      <c r="AZ25" s="423"/>
+      <c r="BA25" s="423"/>
+      <c r="BB25" s="424"/>
       <c r="BC25" s="177"/>
       <c r="BD25" s="177">
         <v>4</v>
@@ -33722,8 +33742,8 @@
         <v>0</v>
       </c>
       <c r="CF25" s="405"/>
-      <c r="CG25" s="435"/>
-      <c r="CH25" s="436"/>
+      <c r="CG25" s="438"/>
+      <c r="CH25" s="439"/>
       <c r="CI25" s="177"/>
       <c r="CJ25" s="370" t="s">
         <v>269</v>
@@ -33736,9 +33756,9 @@
         <f t="shared" si="15"/>
         <v>23.112554900124131</v>
       </c>
-      <c r="CM25" s="422"/>
-      <c r="CN25" s="422"/>
-      <c r="CO25" s="423"/>
+      <c r="CM25" s="423"/>
+      <c r="CN25" s="423"/>
+      <c r="CO25" s="424"/>
       <c r="CP25" s="177"/>
       <c r="CQ25" s="177">
         <v>4</v>
@@ -33815,8 +33835,8 @@
         <v>0.63061995111914493</v>
       </c>
       <c r="AS26" s="245"/>
-      <c r="AT26" s="422"/>
-      <c r="AU26" s="423"/>
+      <c r="AT26" s="423"/>
+      <c r="AU26" s="424"/>
       <c r="AV26" s="177"/>
       <c r="AW26" s="245">
         <v>4</v>
@@ -33829,9 +33849,9 @@
         <f t="shared" si="13"/>
         <v>0.64314310545805731</v>
       </c>
-      <c r="AZ26" s="422"/>
-      <c r="BA26" s="422"/>
-      <c r="BB26" s="423"/>
+      <c r="AZ26" s="423"/>
+      <c r="BA26" s="423"/>
+      <c r="BB26" s="424"/>
       <c r="BC26" s="177"/>
       <c r="BD26" s="177"/>
       <c r="BE26" s="177"/>
@@ -33854,8 +33874,8 @@
         <v>0</v>
       </c>
       <c r="CF26" s="405"/>
-      <c r="CG26" s="435"/>
-      <c r="CH26" s="436"/>
+      <c r="CG26" s="438"/>
+      <c r="CH26" s="439"/>
       <c r="CI26" s="177"/>
       <c r="CJ26" s="371">
         <v>4</v>
@@ -33868,9 +33888,9 @@
         <f t="shared" si="15"/>
         <v>0.30366489435186228</v>
       </c>
-      <c r="CM26" s="422"/>
-      <c r="CN26" s="422"/>
-      <c r="CO26" s="423"/>
+      <c r="CM26" s="423"/>
+      <c r="CN26" s="423"/>
+      <c r="CO26" s="424"/>
       <c r="CP26" s="177"/>
       <c r="CQ26" s="177"/>
       <c r="CR26" s="177"/>
@@ -34005,13 +34025,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="H28" s="282"/>
-      <c r="I28" s="426" t="s">
+      <c r="I28" s="436" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="426"/>
-      <c r="K28" s="426"/>
-      <c r="L28" s="426"/>
-      <c r="M28" s="427"/>
+      <c r="J28" s="436"/>
+      <c r="K28" s="436"/>
+      <c r="L28" s="436"/>
+      <c r="M28" s="437"/>
       <c r="R28" s="189"/>
       <c r="S28" s="189"/>
       <c r="T28" s="162" t="s">
@@ -34784,13 +34804,13 @@
         <v>137</v>
       </c>
       <c r="H37" s="174"/>
-      <c r="I37" s="428" t="s">
+      <c r="I37" s="427" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="428"/>
-      <c r="K37" s="428"/>
-      <c r="L37" s="428"/>
-      <c r="M37" s="429"/>
+      <c r="J37" s="427"/>
+      <c r="K37" s="427"/>
+      <c r="L37" s="427"/>
+      <c r="M37" s="428"/>
       <c r="AE37" s="174" t="s">
         <v>180</v>
       </c>
@@ -36169,11 +36189,11 @@
       <c r="CG52" s="398"/>
       <c r="CH52" s="399"/>
       <c r="CI52" s="177"/>
-      <c r="CJ52" s="419" t="s">
+      <c r="CJ52" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="CK52" s="419"/>
-      <c r="CL52" s="420"/>
+      <c r="CK52" s="425"/>
+      <c r="CL52" s="426"/>
       <c r="CM52" s="234"/>
       <c r="CN52" s="215"/>
       <c r="CO52" s="218"/>
@@ -36220,11 +36240,11 @@
       <c r="AZ53" s="215"/>
       <c r="BA53" s="218"/>
       <c r="BB53" s="177"/>
-      <c r="BC53" s="419" t="s">
+      <c r="BC53" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="BD53" s="419"/>
-      <c r="BE53" s="420"/>
+      <c r="BD53" s="425"/>
+      <c r="BE53" s="426"/>
       <c r="BF53" s="234"/>
       <c r="BG53" s="215"/>
       <c r="BH53" s="218"/>
@@ -36697,11 +36717,11 @@
       <c r="CF56" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="CG56" s="435">
+      <c r="CG56" s="438">
         <f>CL45</f>
         <v>0</v>
       </c>
-      <c r="CH56" s="436" t="e">
+      <c r="CH56" s="439" t="e">
         <f>100*(CG56/CU45^2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -36717,14 +36737,14 @@
         <f t="shared" si="19"/>
         <v>6.0443281293424578</v>
       </c>
-      <c r="CM56" s="421" t="s">
+      <c r="CM56" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="CN56" s="422">
+      <c r="CN56" s="423">
         <f>CL46</f>
         <v>9.0724875541940535E-4</v>
       </c>
-      <c r="CO56" s="423">
+      <c r="CO56" s="424">
         <f>100*CN56/CK62</f>
         <v>99.52953191617425</v>
       </c>
@@ -36803,11 +36823,11 @@
       <c r="AY57" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="AZ57" s="422">
+      <c r="AZ57" s="423">
         <f>BE46</f>
         <v>1.2672793782918061E-3</v>
       </c>
-      <c r="BA57" s="423">
+      <c r="BA57" s="424">
         <f>100*(AZ57/BN46^2)</f>
         <v>98.945153722942422</v>
       </c>
@@ -36823,14 +36843,14 @@
         <f t="shared" si="21"/>
         <v>97.867694652982067</v>
       </c>
-      <c r="BF57" s="421" t="s">
+      <c r="BF57" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="BG57" s="422">
+      <c r="BG57" s="423">
         <f>BE47</f>
         <v>1.251669712957726E-3</v>
       </c>
-      <c r="BH57" s="423">
+      <c r="BH57" s="424">
         <f>100*BG57/BD64</f>
         <v>99.16168029185927</v>
       </c>
@@ -36854,8 +36874,8 @@
         <v>0</v>
       </c>
       <c r="CF57" s="405"/>
-      <c r="CG57" s="435"/>
-      <c r="CH57" s="436"/>
+      <c r="CG57" s="438"/>
+      <c r="CH57" s="439"/>
       <c r="CI57" s="177"/>
       <c r="CJ57" s="225" t="s">
         <v>237</v>
@@ -36868,9 +36888,9 @@
         <f t="shared" si="19"/>
         <v>88.709038967782618</v>
       </c>
-      <c r="CM57" s="422"/>
-      <c r="CN57" s="422"/>
-      <c r="CO57" s="423"/>
+      <c r="CM57" s="423"/>
+      <c r="CN57" s="423"/>
+      <c r="CO57" s="424"/>
       <c r="CP57" s="177"/>
       <c r="CQ57" s="177"/>
       <c r="CR57" s="177"/>
@@ -36898,8 +36918,8 @@
         <v>0.71518019279625045</v>
       </c>
       <c r="AY58" s="245"/>
-      <c r="AZ58" s="422"/>
-      <c r="BA58" s="423"/>
+      <c r="AZ58" s="423"/>
+      <c r="BA58" s="424"/>
       <c r="BB58" s="177"/>
       <c r="BC58" s="225" t="s">
         <v>237</v>
@@ -36912,9 +36932,9 @@
         <f t="shared" si="21"/>
         <v>0.71674525695024682</v>
       </c>
-      <c r="BF58" s="422"/>
-      <c r="BG58" s="422"/>
-      <c r="BH58" s="423"/>
+      <c r="BF58" s="423"/>
+      <c r="BG58" s="423"/>
+      <c r="BH58" s="424"/>
       <c r="BI58" s="177"/>
       <c r="BJ58" s="177"/>
       <c r="BK58" s="177"/>
@@ -36935,8 +36955,8 @@
         <v>0</v>
       </c>
       <c r="CF58" s="405"/>
-      <c r="CG58" s="435"/>
-      <c r="CH58" s="436"/>
+      <c r="CG58" s="438"/>
+      <c r="CH58" s="439"/>
       <c r="CI58" s="177"/>
       <c r="CJ58" s="370" t="s">
         <v>269</v>
@@ -36949,9 +36969,9 @@
         <f t="shared" si="19"/>
         <v>2.5218725277602796</v>
       </c>
-      <c r="CM58" s="422"/>
-      <c r="CN58" s="422"/>
-      <c r="CO58" s="423"/>
+      <c r="CM58" s="423"/>
+      <c r="CN58" s="423"/>
+      <c r="CO58" s="424"/>
       <c r="CP58" s="177"/>
       <c r="CQ58" s="177">
         <v>4</v>
@@ -37003,8 +37023,8 @@
         <v>0.30086486181491789</v>
       </c>
       <c r="AY59" s="245"/>
-      <c r="AZ59" s="422"/>
-      <c r="BA59" s="423"/>
+      <c r="AZ59" s="423"/>
+      <c r="BA59" s="424"/>
       <c r="BB59" s="177"/>
       <c r="BC59" s="367" t="s">
         <v>277</v>
@@ -37017,9 +37037,9 @@
         <f t="shared" si="21"/>
         <v>0.30152325925820078</v>
       </c>
-      <c r="BF59" s="422"/>
-      <c r="BG59" s="422"/>
-      <c r="BH59" s="423"/>
+      <c r="BF59" s="423"/>
+      <c r="BG59" s="423"/>
+      <c r="BH59" s="424"/>
       <c r="BI59" s="177"/>
       <c r="BJ59" s="177"/>
       <c r="BK59" s="177"/>
@@ -37040,8 +37060,8 @@
         <v>0</v>
       </c>
       <c r="CF59" s="405"/>
-      <c r="CG59" s="435"/>
-      <c r="CH59" s="436"/>
+      <c r="CG59" s="438"/>
+      <c r="CH59" s="439"/>
       <c r="CI59" s="177"/>
       <c r="CJ59" s="371">
         <v>4</v>
@@ -37054,9 +37074,9 @@
         <f t="shared" si="19"/>
         <v>0.35317056113226808</v>
       </c>
-      <c r="CM59" s="422"/>
-      <c r="CN59" s="422"/>
-      <c r="CO59" s="423"/>
+      <c r="CM59" s="423"/>
+      <c r="CN59" s="423"/>
+      <c r="CO59" s="424"/>
       <c r="CP59" s="177"/>
       <c r="CQ59" s="177"/>
       <c r="CR59" s="177"/>
@@ -37090,8 +37110,8 @@
         <v>0.27511507475681718</v>
       </c>
       <c r="AY60" s="245"/>
-      <c r="AZ60" s="422"/>
-      <c r="BA60" s="423"/>
+      <c r="AZ60" s="423"/>
+      <c r="BA60" s="424"/>
       <c r="BB60" s="177"/>
       <c r="BC60" s="368" t="s">
         <v>278</v>
@@ -37104,9 +37124,9 @@
         <f t="shared" si="21"/>
         <v>0.27915561124698662</v>
       </c>
-      <c r="BF60" s="422"/>
-      <c r="BG60" s="422"/>
-      <c r="BH60" s="423"/>
+      <c r="BF60" s="423"/>
+      <c r="BG60" s="423"/>
+      <c r="BH60" s="424"/>
       <c r="BI60" s="177"/>
       <c r="BJ60" s="177"/>
       <c r="BK60" s="177"/>
@@ -37345,19 +37365,19 @@
       <c r="CV62" s="176"/>
     </row>
     <row r="63" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="B63" s="437" t="s">
+      <c r="B63" s="419" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="438"/>
-      <c r="D63" s="439"/>
+      <c r="C63" s="420"/>
+      <c r="D63" s="421"/>
       <c r="E63" s="234"/>
       <c r="F63" s="215"/>
       <c r="G63" s="218"/>
-      <c r="I63" s="419" t="s">
+      <c r="I63" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="J63" s="419"/>
-      <c r="K63" s="420"/>
+      <c r="J63" s="425"/>
+      <c r="K63" s="426"/>
       <c r="L63" s="234"/>
       <c r="M63" s="215"/>
       <c r="N63" s="218"/>
@@ -37366,11 +37386,11 @@
         <v>7.2171594761322151E-7</v>
       </c>
       <c r="V63" s="294"/>
-      <c r="AD63" s="419" t="s">
+      <c r="AD63" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="AE63" s="419"/>
-      <c r="AF63" s="420"/>
+      <c r="AE63" s="425"/>
+      <c r="AF63" s="426"/>
       <c r="AG63" s="234"/>
       <c r="AH63" s="215"/>
       <c r="AI63" s="218"/>
@@ -37688,11 +37708,11 @@
       <c r="E67" s="226" t="s">
         <v>222</v>
       </c>
-      <c r="F67" s="422">
+      <c r="F67" s="423">
         <f>K56</f>
         <v>1.0441939649392495E-4</v>
       </c>
-      <c r="G67" s="423">
+      <c r="G67" s="424">
         <f>100*(F67/T56^2)</f>
         <v>91.778572930301721</v>
       </c>
@@ -37707,14 +37727,14 @@
         <f t="shared" si="24"/>
         <v>5.4558054714355046</v>
       </c>
-      <c r="L67" s="421" t="s">
+      <c r="L67" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="M67" s="422">
+      <c r="M67" s="423">
         <f>K57</f>
         <v>1.0313321456626362E-4</v>
       </c>
-      <c r="N67" s="423">
+      <c r="N67" s="424">
         <f>100*M67/J73</f>
         <v>93.429787681750128</v>
       </c>
@@ -37730,14 +37750,14 @@
         <f t="shared" ref="AF67:AF72" si="25">100*(AE67/$AR$56^2)</f>
         <v>6.4647523462191918</v>
       </c>
-      <c r="AG67" s="425" t="s">
+      <c r="AG67" s="429" t="s">
         <v>222</v>
       </c>
-      <c r="AH67" s="424">
+      <c r="AH67" s="430">
         <f>SUM(AE67:AE69)</f>
         <v>9.6790779611514045E-5</v>
       </c>
-      <c r="AI67" s="423">
+      <c r="AI67" s="424">
         <f>100*(AH67/AR56^2)</f>
         <v>79.579366006863964</v>
       </c>
@@ -37755,8 +37775,8 @@
         <v>18.765287879077004</v>
       </c>
       <c r="E68" s="222"/>
-      <c r="F68" s="422"/>
-      <c r="G68" s="423"/>
+      <c r="F68" s="423"/>
+      <c r="G68" s="424"/>
       <c r="I68" s="225" t="s">
         <v>237</v>
       </c>
@@ -37768,9 +37788,9 @@
         <f t="shared" si="24"/>
         <v>19.102899580499283</v>
       </c>
-      <c r="L68" s="422"/>
-      <c r="M68" s="422"/>
-      <c r="N68" s="423"/>
+      <c r="L68" s="423"/>
+      <c r="M68" s="423"/>
+      <c r="N68" s="424"/>
       <c r="V68" s="294"/>
       <c r="AD68" s="225" t="s">
         <v>237</v>
@@ -37783,9 +37803,9 @@
         <f t="shared" si="25"/>
         <v>19.159852688594174</v>
       </c>
-      <c r="AG68" s="422"/>
-      <c r="AH68" s="422"/>
-      <c r="AI68" s="423"/>
+      <c r="AG68" s="423"/>
+      <c r="AH68" s="423"/>
+      <c r="AI68" s="424"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B69" s="225" t="s">
@@ -37800,8 +37820,8 @@
         <v>67.653901788369566</v>
       </c>
       <c r="E69" s="222"/>
-      <c r="F69" s="422"/>
-      <c r="G69" s="423"/>
+      <c r="F69" s="423"/>
+      <c r="G69" s="424"/>
       <c r="I69" s="321" t="s">
         <v>269</v>
       </c>
@@ -37813,9 +37833,9 @@
         <f t="shared" si="24"/>
         <v>68.871082629815348</v>
       </c>
-      <c r="L69" s="422"/>
-      <c r="M69" s="422"/>
-      <c r="N69" s="423"/>
+      <c r="L69" s="423"/>
+      <c r="M69" s="423"/>
+      <c r="N69" s="424"/>
       <c r="V69" s="294"/>
       <c r="AD69" s="225" t="s">
         <v>238</v>
@@ -37828,9 +37848,9 @@
         <f t="shared" si="25"/>
         <v>53.9547609720506</v>
       </c>
-      <c r="AG69" s="422"/>
-      <c r="AH69" s="422"/>
-      <c r="AI69" s="423"/>
+      <c r="AG69" s="423"/>
+      <c r="AH69" s="423"/>
+      <c r="AI69" s="424"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B70" s="222">
@@ -37845,8 +37865,8 @@
         <v>1.8120556158039802</v>
       </c>
       <c r="E70" s="222"/>
-      <c r="F70" s="422"/>
-      <c r="G70" s="423"/>
+      <c r="F70" s="423"/>
+      <c r="G70" s="424"/>
       <c r="I70" s="222">
         <v>4</v>
       </c>
@@ -37858,9 +37878,9 @@
         <f t="shared" si="24"/>
         <v>1.8676616819548555</v>
       </c>
-      <c r="L70" s="422"/>
-      <c r="M70" s="422"/>
-      <c r="N70" s="423"/>
+      <c r="L70" s="423"/>
+      <c r="M70" s="423"/>
+      <c r="N70" s="424"/>
       <c r="R70" s="177">
         <v>4.4650867254515999E-3</v>
       </c>
@@ -37876,9 +37896,9 @@
         <f t="shared" si="25"/>
         <v>2.6468260592379833</v>
       </c>
-      <c r="AG70" s="422"/>
-      <c r="AH70" s="422"/>
-      <c r="AI70" s="423"/>
+      <c r="AG70" s="423"/>
+      <c r="AH70" s="423"/>
+      <c r="AI70" s="424"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B71" s="222">
@@ -38590,11 +38610,11 @@
       <c r="AG95" s="217"/>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D96" s="419" t="s">
+      <c r="D96" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="419"/>
-      <c r="F96" s="420"/>
+      <c r="E96" s="425"/>
+      <c r="F96" s="426"/>
       <c r="G96" s="234"/>
       <c r="H96" s="215"/>
       <c r="I96" s="218"/>
@@ -38604,11 +38624,11 @@
         <v>#REF!</v>
       </c>
       <c r="V96" s="294"/>
-      <c r="AB96" s="419" t="s">
+      <c r="AB96" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="AC96" s="419"/>
-      <c r="AD96" s="420"/>
+      <c r="AC96" s="425"/>
+      <c r="AD96" s="426"/>
       <c r="AE96" s="234"/>
       <c r="AF96" s="215"/>
       <c r="AG96" s="218"/>
@@ -38738,14 +38758,14 @@
         <f t="shared" si="26"/>
         <v>16.55501543697498</v>
       </c>
-      <c r="G100" s="421" t="s">
+      <c r="G100" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="H100" s="422">
+      <c r="H100" s="423">
         <f>K89</f>
         <v>3.8179250490251684E-5</v>
       </c>
-      <c r="I100" s="423">
+      <c r="I100" s="424">
         <f>100*(H100/T89^2)</f>
         <v>80.321517916381623</v>
       </c>
@@ -38761,14 +38781,14 @@
         <f t="shared" si="27"/>
         <v>2.758947828953787</v>
       </c>
-      <c r="AE100" s="421" t="s">
+      <c r="AE100" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="AF100" s="422">
+      <c r="AF100" s="423">
         <f>AI89</f>
         <v>4.2889442436319002E-5</v>
       </c>
-      <c r="AG100" s="423">
+      <c r="AG100" s="424">
         <f>100*(AF100/AR89^2)</f>
         <v>63.327277527596081</v>
       </c>
@@ -38785,9 +38805,9 @@
         <f t="shared" si="26"/>
         <v>10.15389754599342</v>
       </c>
-      <c r="G101" s="422"/>
-      <c r="H101" s="422"/>
-      <c r="I101" s="423"/>
+      <c r="G101" s="423"/>
+      <c r="H101" s="423"/>
+      <c r="I101" s="424"/>
       <c r="K101" s="194"/>
       <c r="V101" s="294"/>
       <c r="AB101" s="225" t="s">
@@ -38801,9 +38821,9 @@
         <f t="shared" si="27"/>
         <v>8.1259277470965472</v>
       </c>
-      <c r="AE101" s="422"/>
-      <c r="AF101" s="422"/>
-      <c r="AG101" s="423"/>
+      <c r="AE101" s="423"/>
+      <c r="AF101" s="423"/>
+      <c r="AG101" s="424"/>
       <c r="AI101" s="194"/>
     </row>
     <row r="102" spans="4:36" x14ac:dyDescent="0.25">
@@ -38818,9 +38838,9 @@
         <f t="shared" si="26"/>
         <v>26.308876863293939</v>
       </c>
-      <c r="G102" s="422"/>
-      <c r="H102" s="422"/>
-      <c r="I102" s="423"/>
+      <c r="G102" s="423"/>
+      <c r="H102" s="423"/>
+      <c r="I102" s="424"/>
       <c r="V102" s="294"/>
       <c r="AB102" s="321" t="s">
         <v>264</v>
@@ -38833,9 +38853,9 @@
         <f t="shared" si="27"/>
         <v>25.899528165193797</v>
       </c>
-      <c r="AE102" s="422"/>
-      <c r="AF102" s="422"/>
-      <c r="AG102" s="423"/>
+      <c r="AE102" s="423"/>
+      <c r="AF102" s="423"/>
+      <c r="AG102" s="424"/>
     </row>
     <row r="103" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D103" s="323" t="s">
@@ -38849,9 +38869,9 @@
         <f t="shared" si="26"/>
         <v>27.303728070119281</v>
       </c>
-      <c r="G103" s="422"/>
-      <c r="H103" s="422"/>
-      <c r="I103" s="423"/>
+      <c r="G103" s="423"/>
+      <c r="H103" s="423"/>
+      <c r="I103" s="424"/>
       <c r="V103" s="294"/>
       <c r="AB103" s="323" t="s">
         <v>265</v>
@@ -38864,9 +38884,9 @@
         <f t="shared" si="27"/>
         <v>26.542873786351951</v>
       </c>
-      <c r="AE103" s="422"/>
-      <c r="AF103" s="422"/>
-      <c r="AG103" s="423"/>
+      <c r="AE103" s="423"/>
+      <c r="AF103" s="423"/>
+      <c r="AG103" s="424"/>
     </row>
     <row r="104" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D104" s="222">
@@ -39031,11 +39051,11 @@
       <c r="V111" s="294"/>
     </row>
     <row r="112" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D112" s="419" t="s">
+      <c r="D112" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="E112" s="419"/>
-      <c r="F112" s="420"/>
+      <c r="E112" s="425"/>
+      <c r="F112" s="426"/>
       <c r="G112" s="234"/>
       <c r="H112" s="215"/>
       <c r="I112" s="218"/>
@@ -39110,14 +39130,14 @@
         <f t="shared" si="28"/>
         <v>17.286261715652213</v>
       </c>
-      <c r="G116" s="421" t="s">
+      <c r="G116" s="422" t="s">
         <v>222</v>
       </c>
-      <c r="H116" s="422">
+      <c r="H116" s="423">
         <f>K90</f>
         <v>3.7708979030723827E-5</v>
       </c>
-      <c r="I116" s="423">
+      <c r="I116" s="424">
         <f>100*(H116/T90^2)</f>
         <v>85.311343765947669</v>
       </c>
@@ -39135,9 +39155,9 @@
         <f t="shared" si="28"/>
         <v>10.602402098758384</v>
       </c>
-      <c r="G117" s="422"/>
-      <c r="H117" s="422"/>
-      <c r="I117" s="423"/>
+      <c r="G117" s="423"/>
+      <c r="H117" s="423"/>
+      <c r="I117" s="424"/>
       <c r="V117" s="294"/>
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.25">
@@ -39152,9 +39172,9 @@
         <f t="shared" si="28"/>
         <v>27.470957827561321</v>
       </c>
-      <c r="G118" s="422"/>
-      <c r="H118" s="422"/>
-      <c r="I118" s="423"/>
+      <c r="G118" s="423"/>
+      <c r="H118" s="423"/>
+      <c r="I118" s="424"/>
       <c r="V118" s="294"/>
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.25">
@@ -39170,9 +39190,9 @@
         <f t="shared" si="28"/>
         <v>28.509752288054901</v>
       </c>
-      <c r="G119" s="422"/>
-      <c r="H119" s="422"/>
-      <c r="I119" s="423"/>
+      <c r="G119" s="423"/>
+      <c r="H119" s="423"/>
+      <c r="I119" s="424"/>
       <c r="V119" s="294"/>
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.25">
@@ -40202,6 +40222,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="CN23:CN26"/>
+    <mergeCell ref="CO23:CO26"/>
+    <mergeCell ref="CJ52:CL52"/>
+    <mergeCell ref="CG56:CG59"/>
+    <mergeCell ref="CH56:CH59"/>
+    <mergeCell ref="CM56:CM59"/>
+    <mergeCell ref="CN56:CN59"/>
+    <mergeCell ref="CO56:CO59"/>
+    <mergeCell ref="BN16:BR16"/>
+    <mergeCell ref="CJ19:CL19"/>
+    <mergeCell ref="CG23:CG26"/>
+    <mergeCell ref="CH23:CH26"/>
+    <mergeCell ref="CM23:CM26"/>
+    <mergeCell ref="BH57:BH60"/>
+    <mergeCell ref="BC53:BE53"/>
+    <mergeCell ref="AZ57:AZ60"/>
+    <mergeCell ref="BA57:BA60"/>
+    <mergeCell ref="BF57:BF60"/>
+    <mergeCell ref="BG57:BG60"/>
+    <mergeCell ref="BB23:BB26"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="AW19:AY19"/>
+    <mergeCell ref="AT23:AT26"/>
+    <mergeCell ref="AU23:AU26"/>
+    <mergeCell ref="AZ23:AZ26"/>
+    <mergeCell ref="BA23:BA26"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AG67:AG70"/>
+    <mergeCell ref="AH67:AH70"/>
+    <mergeCell ref="AI67:AI70"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="AE100:AE103"/>
     <mergeCell ref="AF100:AF103"/>
@@ -40214,48 +40276,6 @@
     <mergeCell ref="I63:K63"/>
     <mergeCell ref="L67:L70"/>
     <mergeCell ref="M67:M70"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="H116:H119"/>
-    <mergeCell ref="I116:I119"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AG67:AG70"/>
-    <mergeCell ref="AH67:AH70"/>
-    <mergeCell ref="AI67:AI70"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="BB23:BB26"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="AW19:AY19"/>
-    <mergeCell ref="AT23:AT26"/>
-    <mergeCell ref="AU23:AU26"/>
-    <mergeCell ref="AZ23:AZ26"/>
-    <mergeCell ref="BA23:BA26"/>
-    <mergeCell ref="BH57:BH60"/>
-    <mergeCell ref="BC53:BE53"/>
-    <mergeCell ref="AZ57:AZ60"/>
-    <mergeCell ref="BA57:BA60"/>
-    <mergeCell ref="BF57:BF60"/>
-    <mergeCell ref="BG57:BG60"/>
-    <mergeCell ref="BN16:BR16"/>
-    <mergeCell ref="CJ19:CL19"/>
-    <mergeCell ref="CG23:CG26"/>
-    <mergeCell ref="CH23:CH26"/>
-    <mergeCell ref="CM23:CM26"/>
-    <mergeCell ref="CN23:CN26"/>
-    <mergeCell ref="CO23:CO26"/>
-    <mergeCell ref="CJ52:CL52"/>
-    <mergeCell ref="CG56:CG59"/>
-    <mergeCell ref="CH56:CH59"/>
-    <mergeCell ref="CM56:CM59"/>
-    <mergeCell ref="CN56:CN59"/>
-    <mergeCell ref="CO56:CO59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41633,7 +41653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D322F9-DCDA-47A6-A426-E87F338CB673}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -42488,17 +42508,17 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="441" t="s">
+      <c r="A6" s="442" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="442"/>
+      <c r="B6" s="443"/>
       <c r="C6" s="130"/>
       <c r="D6" s="130"/>
       <c r="E6" s="131"/>
-      <c r="G6" s="441" t="s">
+      <c r="G6" s="442" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="442"/>
+      <c r="H6" s="443"/>
       <c r="I6" s="130"/>
       <c r="J6" s="130"/>
       <c r="K6" s="131"/>
@@ -42789,7 +42809,7 @@
       <c r="E13" s="128">
         <v>76</v>
       </c>
-      <c r="F13" s="443" t="s">
+      <c r="F13" s="440" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="128">
@@ -42848,7 +42868,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
       <c r="D14" s="135"/>
-      <c r="F14" s="443"/>
+      <c r="F14" s="440"/>
       <c r="G14" s="128">
         <v>186</v>
       </c>
@@ -42905,7 +42925,7 @@
       <c r="B15" s="140"/>
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
-      <c r="F15" s="443"/>
+      <c r="F15" s="440"/>
       <c r="G15" s="128">
         <v>187</v>
       </c>
@@ -42958,13 +42978,13 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="440" t="s">
+      <c r="A16" s="441" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="440"/>
-      <c r="C16" s="440"/>
-      <c r="D16" s="440"/>
-      <c r="F16" s="443"/>
+      <c r="B16" s="441"/>
+      <c r="C16" s="441"/>
+      <c r="D16" s="441"/>
+      <c r="F16" s="440"/>
       <c r="G16" s="128">
         <v>188</v>
       </c>
@@ -43030,7 +43050,7 @@
       <c r="D17" s="155">
         <v>1.9E-2</v>
       </c>
-      <c r="F17" s="443"/>
+      <c r="F17" s="440"/>
       <c r="G17" s="128">
         <v>189</v>
       </c>
@@ -43096,7 +43116,7 @@
       <c r="D18" s="155">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F18" s="443"/>
+      <c r="F18" s="440"/>
       <c r="G18" s="128">
         <v>190</v>
       </c>
@@ -43163,7 +43183,7 @@
         <f>SQRT(D17^2+D18^2)</f>
         <v>6.1032778078668512E-2</v>
       </c>
-      <c r="F19" s="443"/>
+      <c r="F19" s="440"/>
       <c r="G19" s="134">
         <v>192</v>
       </c>
@@ -43206,12 +43226,12 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="440" t="s">
+      <c r="A20" s="441" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="440"/>
-      <c r="C20" s="440"/>
-      <c r="D20" s="440"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="441"/>
+      <c r="D20" s="441"/>
       <c r="F20" s="144"/>
       <c r="N20" s="128">
         <f>SUM(N13:N19)</f>
@@ -43230,10 +43250,10 @@
       <c r="R20" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="440" t="s">
+      <c r="S20" s="441" t="s">
         <v>169</v>
       </c>
-      <c r="T20" s="440"/>
+      <c r="T20" s="441"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="145">
@@ -43295,7 +43315,7 @@
       <c r="E22" s="128">
         <v>77</v>
       </c>
-      <c r="F22" s="443" t="s">
+      <c r="F22" s="440" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="128">
@@ -43356,7 +43376,7 @@
         <f>SQRT((D21*D21)+(D22*D22))</f>
         <v>6.0827625302982198E-2</v>
       </c>
-      <c r="F23" s="443"/>
+      <c r="F23" s="440"/>
       <c r="G23" s="128">
         <v>183</v>
       </c>
@@ -43399,7 +43419,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F24" s="443"/>
+      <c r="F24" s="440"/>
       <c r="G24" s="128">
         <v>184</v>
       </c>
@@ -43442,7 +43462,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F25" s="443"/>
+      <c r="F25" s="440"/>
       <c r="G25" s="128">
         <v>185</v>
       </c>
@@ -43490,7 +43510,7 @@
         <f>SQRT(0.000025)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="443"/>
+      <c r="F26" s="440"/>
       <c r="G26" s="128">
         <v>186</v>
       </c>
@@ -43536,7 +43556,7 @@
       <c r="A27" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="443"/>
+      <c r="F27" s="440"/>
       <c r="G27" s="128">
         <v>187</v>
       </c>
@@ -43585,7 +43605,7 @@
       <c r="C28" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="443"/>
+      <c r="F28" s="440"/>
       <c r="G28" s="128">
         <v>188</v>
       </c>
@@ -43640,7 +43660,7 @@
       <c r="D29" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="443"/>
+      <c r="F29" s="440"/>
       <c r="G29" s="128">
         <v>189</v>
       </c>
@@ -43684,7 +43704,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="142"/>
-      <c r="F30" s="443"/>
+      <c r="F30" s="440"/>
       <c r="G30" s="128">
         <v>191</v>
       </c>
@@ -43740,7 +43760,7 @@
         <f>SQRT(0.000025 + 7.21*10^(-8)*(B12*I4)^2)</f>
         <v>1.1009439679557396E-2</v>
       </c>
-      <c r="F31" s="443"/>
+      <c r="F31" s="440"/>
       <c r="G31" s="134">
         <v>193</v>
       </c>
@@ -43863,7 +43883,7 @@
       <c r="E34" s="128">
         <v>74</v>
       </c>
-      <c r="F34" s="443" t="s">
+      <c r="F34" s="440" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="128">
@@ -43894,7 +43914,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" s="443"/>
+      <c r="F35" s="440"/>
       <c r="G35" s="128">
         <v>182</v>
       </c>
@@ -43931,7 +43951,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="443"/>
+      <c r="F36" s="440"/>
       <c r="G36" s="128">
         <v>183</v>
       </c>
@@ -43959,7 +43979,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" s="443"/>
+      <c r="F37" s="440"/>
       <c r="G37" s="128">
         <v>184</v>
       </c>
@@ -43984,7 +44004,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" s="443"/>
+      <c r="F38" s="440"/>
       <c r="G38" s="134">
         <v>186</v>
       </c>
@@ -44010,10 +44030,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F39" s="144"/>
-      <c r="S39" s="440" t="s">
+      <c r="S39" s="441" t="s">
         <v>170</v>
       </c>
-      <c r="T39" s="440"/>
+      <c r="T39" s="441"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="128" t="s">
@@ -44063,7 +44083,7 @@
       <c r="E41" s="128">
         <v>75</v>
       </c>
-      <c r="F41" s="443" t="s">
+      <c r="F41" s="440" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="128">
@@ -44113,7 +44133,7 @@
       <c r="D42" s="128">
         <v>0.03</v>
       </c>
-      <c r="F42" s="443"/>
+      <c r="F42" s="440"/>
       <c r="G42" s="134">
         <v>187</v>
       </c>
@@ -44224,7 +44244,7 @@
       <c r="E45" s="128">
         <v>78</v>
       </c>
-      <c r="F45" s="443" t="s">
+      <c r="F45" s="440" t="s">
         <v>75</v>
       </c>
       <c r="G45" s="128">
@@ -44270,7 +44290,7 @@
       <c r="A46" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="443"/>
+      <c r="F46" s="440"/>
       <c r="G46" s="128">
         <v>184</v>
       </c>
@@ -44324,7 +44344,7 @@
       <c r="D47" s="128">
         <v>0.03</v>
       </c>
-      <c r="F47" s="443"/>
+      <c r="F47" s="440"/>
       <c r="G47" s="128">
         <v>185</v>
       </c>
@@ -44378,7 +44398,7 @@
       <c r="D48" s="128">
         <v>0.03</v>
       </c>
-      <c r="F48" s="443"/>
+      <c r="F48" s="440"/>
       <c r="G48" s="128">
         <v>186</v>
       </c>
@@ -44434,7 +44454,7 @@
       <c r="D49" s="128">
         <v>0.01</v>
       </c>
-      <c r="F49" s="443"/>
+      <c r="F49" s="440"/>
       <c r="G49" s="128">
         <v>187</v>
       </c>
@@ -44483,7 +44503,7 @@
       <c r="X49" s="137"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="443"/>
+      <c r="F50" s="440"/>
       <c r="G50" s="128">
         <v>188</v>
       </c>
@@ -44531,7 +44551,7 @@
       <c r="A51" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="443"/>
+      <c r="F51" s="440"/>
       <c r="G51" s="128">
         <v>189</v>
       </c>
@@ -44585,7 +44605,7 @@
       <c r="E52" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="443"/>
+      <c r="F52" s="440"/>
       <c r="G52" s="128">
         <v>190</v>
       </c>
@@ -44634,7 +44654,7 @@
       <c r="E53" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="443"/>
+      <c r="F53" s="440"/>
       <c r="G53" s="128">
         <v>191</v>
       </c>
@@ -44687,7 +44707,7 @@
       <c r="E54" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="F54" s="443"/>
+      <c r="F54" s="440"/>
       <c r="G54" s="128">
         <v>192</v>
       </c>
@@ -44721,7 +44741,7 @@
       <c r="X54" s="137"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="443"/>
+      <c r="F55" s="440"/>
       <c r="G55" s="128">
         <v>193</v>
       </c>
@@ -44751,7 +44771,7 @@
       <c r="X55" s="137"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="443"/>
+      <c r="F56" s="440"/>
       <c r="G56" s="134">
         <v>194</v>
       </c>
@@ -45518,17 +45538,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="F22:F31"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F45:F56"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F45:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48923,17 +48943,17 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="449" t="s">
+      <c r="A6" s="447" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="450"/>
+      <c r="B6" s="448"/>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
       <c r="E6" s="109"/>
-      <c r="G6" s="449" t="s">
+      <c r="G6" s="447" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="451"/>
+      <c r="H6" s="449"/>
       <c r="I6" s="108"/>
       <c r="J6" s="108"/>
       <c r="K6" s="109"/>
@@ -49274,12 +49294,12 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="447" t="s">
+      <c r="A16" s="450" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="448"/>
-      <c r="C16" s="448"/>
-      <c r="D16" s="448"/>
+      <c r="B16" s="451"/>
+      <c r="C16" s="451"/>
+      <c r="D16" s="451"/>
       <c r="F16" s="444"/>
       <c r="G16" s="12">
         <v>188</v>
@@ -49480,12 +49500,12 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="447" t="s">
+      <c r="A20" s="450" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="448"/>
-      <c r="C20" s="448"/>
-      <c r="D20" s="448"/>
+      <c r="B20" s="451"/>
+      <c r="C20" s="451"/>
+      <c r="D20" s="451"/>
       <c r="F20" s="93"/>
       <c r="N20" s="12">
         <f>SUM(N13:N19)</f>
@@ -49504,10 +49524,10 @@
       <c r="R20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="447" t="s">
+      <c r="S20" s="450" t="s">
         <v>169</v>
       </c>
-      <c r="T20" s="448"/>
+      <c r="T20" s="451"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -50297,10 +50317,10 @@
         <v>5.0000000648899997E-3</v>
       </c>
       <c r="F39" s="93"/>
-      <c r="S39" s="447" t="s">
+      <c r="S39" s="450" t="s">
         <v>170</v>
       </c>
-      <c r="T39" s="448"/>
+      <c r="T39" s="451"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G40" s="14" t="s">
@@ -51386,17 +51406,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F22:F31"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F45:F56"/>
+    <mergeCell ref="S39:T39"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="F13:F19"/>
-    <mergeCell ref="F22:F31"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F45:F56"/>
-    <mergeCell ref="S39:T39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/NucRadAnalysisv4.xlsx
+++ b/NucRadAnalysisv4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b40a8285afd6524a/Documents/GitHub/Os-Ir-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{744B5A07-6C60-493B-BFF7-906CD33F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10B7994D-C0A2-419C-B233-00E8079FA61F}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{744B5A07-6C60-493B-BFF7-906CD33F56A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6B882C7-A9BB-451A-88EF-84DDFA019744}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="794" xr2:uid="{81035187-6465-1745-8A26-C08CEE6A9890}"/>
+    <workbookView xWindow="26100" yWindow="10890" windowWidth="22275" windowHeight="18315" tabRatio="794" xr2:uid="{81035187-6465-1745-8A26-C08CEE6A9890}"/>
   </bookViews>
   <sheets>
     <sheet name="Uncertainty Budget" sheetId="14" r:id="rId1"/>
@@ -2381,6 +2381,7 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="20" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,7 +2520,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30272,7 +30272,7 @@
   <dimension ref="A1:CV173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30349,7 +30349,7 @@
       <c r="E1" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="F1" s="465" t="s">
+      <c r="F1" s="419" t="s">
         <v>306</v>
       </c>
       <c r="G1" s="168"/>
@@ -31063,13 +31063,13 @@
         <v>7.4485449635772101</v>
       </c>
       <c r="H6" s="206"/>
-      <c r="I6" s="434" t="s">
+      <c r="I6" s="435" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="434"/>
-      <c r="K6" s="434"/>
-      <c r="L6" s="434"/>
-      <c r="M6" s="435"/>
+      <c r="J6" s="435"/>
+      <c r="K6" s="435"/>
+      <c r="L6" s="435"/>
+      <c r="M6" s="436"/>
       <c r="T6" s="162">
         <v>1.06745562130177E-10</v>
       </c>
@@ -32268,21 +32268,21 @@
       <c r="CV14" s="176"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="A15" s="433" t="s">
+      <c r="A15" s="434" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="433"/>
-      <c r="C15" s="433"/>
-      <c r="D15" s="433"/>
-      <c r="E15" s="433"/>
+      <c r="B15" s="434"/>
+      <c r="C15" s="434"/>
+      <c r="D15" s="434"/>
+      <c r="E15" s="434"/>
       <c r="H15" s="330"/>
-      <c r="I15" s="431" t="s">
+      <c r="I15" s="432" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="431"/>
-      <c r="K15" s="431"/>
-      <c r="L15" s="431"/>
-      <c r="M15" s="432"/>
+      <c r="J15" s="432"/>
+      <c r="K15" s="432"/>
+      <c r="L15" s="432"/>
+      <c r="M15" s="433"/>
       <c r="O15" s="174">
         <v>7.4506600000000001</v>
       </c>
@@ -32466,13 +32466,13 @@
         <v>163</v>
       </c>
       <c r="Y16" s="330"/>
-      <c r="Z16" s="431" t="s">
+      <c r="Z16" s="432" t="s">
         <v>204</v>
       </c>
-      <c r="AA16" s="431"/>
-      <c r="AB16" s="431"/>
-      <c r="AC16" s="431"/>
-      <c r="AD16" s="432"/>
+      <c r="AA16" s="432"/>
+      <c r="AB16" s="432"/>
+      <c r="AC16" s="432"/>
+      <c r="AD16" s="433"/>
       <c r="AO16" s="174"/>
       <c r="AP16" s="177"/>
       <c r="AQ16" s="177"/>
@@ -32498,13 +32498,13 @@
       <c r="BH16" s="177"/>
       <c r="BI16" s="176"/>
       <c r="BM16" s="330"/>
-      <c r="BN16" s="431" t="s">
+      <c r="BN16" s="432" t="s">
         <v>204</v>
       </c>
-      <c r="BO16" s="431"/>
-      <c r="BP16" s="431"/>
-      <c r="BQ16" s="431"/>
-      <c r="BR16" s="432"/>
+      <c r="BO16" s="432"/>
+      <c r="BP16" s="432"/>
+      <c r="BQ16" s="432"/>
+      <c r="BR16" s="433"/>
       <c r="CB16" s="174"/>
       <c r="CC16" s="177"/>
       <c r="CD16" s="177"/>
@@ -32882,11 +32882,11 @@
       <c r="AT19" s="215"/>
       <c r="AU19" s="218"/>
       <c r="AV19" s="177"/>
-      <c r="AW19" s="425" t="s">
+      <c r="AW19" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="AX19" s="425"/>
-      <c r="AY19" s="426"/>
+      <c r="AX19" s="426"/>
+      <c r="AY19" s="427"/>
       <c r="AZ19" s="234"/>
       <c r="BA19" s="215"/>
       <c r="BB19" s="218"/>
@@ -32910,11 +32910,11 @@
       <c r="CG19" s="398"/>
       <c r="CH19" s="399"/>
       <c r="CI19" s="177"/>
-      <c r="CJ19" s="425" t="s">
+      <c r="CJ19" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="CK19" s="425"/>
-      <c r="CL19" s="426"/>
+      <c r="CK19" s="426"/>
+      <c r="CL19" s="427"/>
       <c r="CM19" s="234"/>
       <c r="CN19" s="215"/>
       <c r="CO19" s="218"/>
@@ -33395,11 +33395,11 @@
       <c r="AS23" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="AT23" s="423">
+      <c r="AT23" s="424">
         <f>AY12</f>
         <v>3.1556023013464343E-4</v>
       </c>
-      <c r="AU23" s="424">
+      <c r="AU23" s="425">
         <f>100*(AT23/BH12^2)</f>
         <v>96.524724207301006</v>
       </c>
@@ -33415,14 +33415,14 @@
         <f t="shared" si="13"/>
         <v>7.7754279198127536</v>
       </c>
-      <c r="AZ23" s="422" t="s">
+      <c r="AZ23" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="BA23" s="423">
+      <c r="BA23" s="424">
         <f>AY13</f>
         <v>3.1167332905385198E-4</v>
       </c>
-      <c r="BB23" s="424">
+      <c r="BB23" s="425">
         <f>100*BA23/AX29</f>
         <v>97.229008474378347</v>
       </c>
@@ -33448,11 +33448,11 @@
       <c r="CF23" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="CG23" s="438">
+      <c r="CG23" s="439">
         <f>CL12</f>
         <v>0</v>
       </c>
-      <c r="CH23" s="439" t="e">
+      <c r="CH23" s="440" t="e">
         <f>100*(CG23/CU12^2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -33468,14 +33468,14 @@
         <f t="shared" si="15"/>
         <v>0.20083819137161335</v>
       </c>
-      <c r="CM23" s="422" t="s">
+      <c r="CM23" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="CN23" s="423">
+      <c r="CN23" s="424">
         <f>CL13</f>
         <v>1.0353054946360281E-3</v>
       </c>
-      <c r="CO23" s="424">
+      <c r="CO23" s="425">
         <f>100*CN23/CK29</f>
         <v>97.657182782192734</v>
       </c>
@@ -33556,8 +33556,8 @@
         <v>24.288503194440423</v>
       </c>
       <c r="AS24" s="245"/>
-      <c r="AT24" s="423"/>
-      <c r="AU24" s="424"/>
+      <c r="AT24" s="424"/>
+      <c r="AU24" s="425"/>
       <c r="AV24" s="177"/>
       <c r="AW24" s="225" t="s">
         <v>237</v>
@@ -33570,9 +33570,9 @@
         <f t="shared" si="13"/>
         <v>24.465722148560044</v>
       </c>
-      <c r="AZ24" s="423"/>
-      <c r="BA24" s="423"/>
-      <c r="BB24" s="424"/>
+      <c r="AZ24" s="424"/>
+      <c r="BA24" s="424"/>
+      <c r="BB24" s="425"/>
       <c r="BC24" s="177"/>
       <c r="BD24" s="177"/>
       <c r="BE24" s="177"/>
@@ -33593,8 +33593,8 @@
         <v>0</v>
       </c>
       <c r="CF24" s="405"/>
-      <c r="CG24" s="438"/>
-      <c r="CH24" s="439"/>
+      <c r="CG24" s="439"/>
+      <c r="CH24" s="440"/>
       <c r="CI24" s="177"/>
       <c r="CJ24" s="225" t="s">
         <v>237</v>
@@ -33607,9 +33607,9 @@
         <f t="shared" si="15"/>
         <v>74.34378969069698</v>
       </c>
-      <c r="CM24" s="423"/>
-      <c r="CN24" s="423"/>
-      <c r="CO24" s="424"/>
+      <c r="CM24" s="424"/>
+      <c r="CN24" s="424"/>
+      <c r="CO24" s="425"/>
       <c r="CP24" s="177"/>
       <c r="CQ24" s="177"/>
       <c r="CR24" s="177"/>
@@ -33703,8 +33703,8 @@
         <v>64.517114880543588</v>
       </c>
       <c r="AS25" s="245"/>
-      <c r="AT25" s="423"/>
-      <c r="AU25" s="424"/>
+      <c r="AT25" s="424"/>
+      <c r="AU25" s="425"/>
       <c r="AV25" s="177"/>
       <c r="AW25" s="322" t="s">
         <v>269</v>
@@ -33717,9 +33717,9 @@
         <f t="shared" si="13"/>
         <v>64.987858406005543</v>
       </c>
-      <c r="AZ25" s="423"/>
-      <c r="BA25" s="423"/>
-      <c r="BB25" s="424"/>
+      <c r="AZ25" s="424"/>
+      <c r="BA25" s="424"/>
+      <c r="BB25" s="425"/>
       <c r="BC25" s="177"/>
       <c r="BD25" s="177">
         <v>4</v>
@@ -33742,8 +33742,8 @@
         <v>0</v>
       </c>
       <c r="CF25" s="405"/>
-      <c r="CG25" s="438"/>
-      <c r="CH25" s="439"/>
+      <c r="CG25" s="439"/>
+      <c r="CH25" s="440"/>
       <c r="CI25" s="177"/>
       <c r="CJ25" s="370" t="s">
         <v>269</v>
@@ -33756,9 +33756,9 @@
         <f t="shared" si="15"/>
         <v>23.112554900124131</v>
       </c>
-      <c r="CM25" s="423"/>
-      <c r="CN25" s="423"/>
-      <c r="CO25" s="424"/>
+      <c r="CM25" s="424"/>
+      <c r="CN25" s="424"/>
+      <c r="CO25" s="425"/>
       <c r="CP25" s="177"/>
       <c r="CQ25" s="177">
         <v>4</v>
@@ -33835,8 +33835,8 @@
         <v>0.63061995111914493</v>
       </c>
       <c r="AS26" s="245"/>
-      <c r="AT26" s="423"/>
-      <c r="AU26" s="424"/>
+      <c r="AT26" s="424"/>
+      <c r="AU26" s="425"/>
       <c r="AV26" s="177"/>
       <c r="AW26" s="245">
         <v>4</v>
@@ -33849,9 +33849,9 @@
         <f t="shared" si="13"/>
         <v>0.64314310545805731</v>
       </c>
-      <c r="AZ26" s="423"/>
-      <c r="BA26" s="423"/>
-      <c r="BB26" s="424"/>
+      <c r="AZ26" s="424"/>
+      <c r="BA26" s="424"/>
+      <c r="BB26" s="425"/>
       <c r="BC26" s="177"/>
       <c r="BD26" s="177"/>
       <c r="BE26" s="177"/>
@@ -33874,8 +33874,8 @@
         <v>0</v>
       </c>
       <c r="CF26" s="405"/>
-      <c r="CG26" s="438"/>
-      <c r="CH26" s="439"/>
+      <c r="CG26" s="439"/>
+      <c r="CH26" s="440"/>
       <c r="CI26" s="177"/>
       <c r="CJ26" s="371">
         <v>4</v>
@@ -33888,9 +33888,9 @@
         <f t="shared" si="15"/>
         <v>0.30366489435186228</v>
       </c>
-      <c r="CM26" s="423"/>
-      <c r="CN26" s="423"/>
-      <c r="CO26" s="424"/>
+      <c r="CM26" s="424"/>
+      <c r="CN26" s="424"/>
+      <c r="CO26" s="425"/>
       <c r="CP26" s="177"/>
       <c r="CQ26" s="177"/>
       <c r="CR26" s="177"/>
@@ -34025,13 +34025,13 @@
         <v>1.5E-3</v>
       </c>
       <c r="H28" s="282"/>
-      <c r="I28" s="436" t="s">
+      <c r="I28" s="437" t="s">
         <v>204</v>
       </c>
-      <c r="J28" s="436"/>
-      <c r="K28" s="436"/>
-      <c r="L28" s="436"/>
-      <c r="M28" s="437"/>
+      <c r="J28" s="437"/>
+      <c r="K28" s="437"/>
+      <c r="L28" s="437"/>
+      <c r="M28" s="438"/>
       <c r="R28" s="189"/>
       <c r="S28" s="189"/>
       <c r="T28" s="162" t="s">
@@ -34804,13 +34804,13 @@
         <v>137</v>
       </c>
       <c r="H37" s="174"/>
-      <c r="I37" s="427" t="s">
+      <c r="I37" s="428" t="s">
         <v>204</v>
       </c>
-      <c r="J37" s="427"/>
-      <c r="K37" s="427"/>
-      <c r="L37" s="427"/>
-      <c r="M37" s="428"/>
+      <c r="J37" s="428"/>
+      <c r="K37" s="428"/>
+      <c r="L37" s="428"/>
+      <c r="M37" s="429"/>
       <c r="AE37" s="174" t="s">
         <v>180</v>
       </c>
@@ -36189,11 +36189,11 @@
       <c r="CG52" s="398"/>
       <c r="CH52" s="399"/>
       <c r="CI52" s="177"/>
-      <c r="CJ52" s="425" t="s">
+      <c r="CJ52" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="CK52" s="425"/>
-      <c r="CL52" s="426"/>
+      <c r="CK52" s="426"/>
+      <c r="CL52" s="427"/>
       <c r="CM52" s="234"/>
       <c r="CN52" s="215"/>
       <c r="CO52" s="218"/>
@@ -36240,11 +36240,11 @@
       <c r="AZ53" s="215"/>
       <c r="BA53" s="218"/>
       <c r="BB53" s="177"/>
-      <c r="BC53" s="425" t="s">
+      <c r="BC53" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="BD53" s="425"/>
-      <c r="BE53" s="426"/>
+      <c r="BD53" s="426"/>
+      <c r="BE53" s="427"/>
       <c r="BF53" s="234"/>
       <c r="BG53" s="215"/>
       <c r="BH53" s="218"/>
@@ -36717,11 +36717,11 @@
       <c r="CF56" s="400" t="s">
         <v>222</v>
       </c>
-      <c r="CG56" s="438">
+      <c r="CG56" s="439">
         <f>CL45</f>
         <v>0</v>
       </c>
-      <c r="CH56" s="439" t="e">
+      <c r="CH56" s="440" t="e">
         <f>100*(CG56/CU45^2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -36737,14 +36737,14 @@
         <f t="shared" si="19"/>
         <v>6.0443281293424578</v>
       </c>
-      <c r="CM56" s="422" t="s">
+      <c r="CM56" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="CN56" s="423">
+      <c r="CN56" s="424">
         <f>CL46</f>
         <v>9.0724875541940535E-4</v>
       </c>
-      <c r="CO56" s="424">
+      <c r="CO56" s="425">
         <f>100*CN56/CK62</f>
         <v>99.52953191617425</v>
       </c>
@@ -36823,11 +36823,11 @@
       <c r="AY57" s="244" t="s">
         <v>222</v>
       </c>
-      <c r="AZ57" s="423">
+      <c r="AZ57" s="424">
         <f>BE46</f>
         <v>1.2672793782918061E-3</v>
       </c>
-      <c r="BA57" s="424">
+      <c r="BA57" s="425">
         <f>100*(AZ57/BN46^2)</f>
         <v>98.945153722942422</v>
       </c>
@@ -36843,14 +36843,14 @@
         <f t="shared" si="21"/>
         <v>97.867694652982067</v>
       </c>
-      <c r="BF57" s="422" t="s">
+      <c r="BF57" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="BG57" s="423">
+      <c r="BG57" s="424">
         <f>BE47</f>
         <v>1.251669712957726E-3</v>
       </c>
-      <c r="BH57" s="424">
+      <c r="BH57" s="425">
         <f>100*BG57/BD64</f>
         <v>99.16168029185927</v>
       </c>
@@ -36874,8 +36874,8 @@
         <v>0</v>
       </c>
       <c r="CF57" s="405"/>
-      <c r="CG57" s="438"/>
-      <c r="CH57" s="439"/>
+      <c r="CG57" s="439"/>
+      <c r="CH57" s="440"/>
       <c r="CI57" s="177"/>
       <c r="CJ57" s="225" t="s">
         <v>237</v>
@@ -36888,9 +36888,9 @@
         <f t="shared" si="19"/>
         <v>88.709038967782618</v>
       </c>
-      <c r="CM57" s="423"/>
-      <c r="CN57" s="423"/>
-      <c r="CO57" s="424"/>
+      <c r="CM57" s="424"/>
+      <c r="CN57" s="424"/>
+      <c r="CO57" s="425"/>
       <c r="CP57" s="177"/>
       <c r="CQ57" s="177"/>
       <c r="CR57" s="177"/>
@@ -36918,8 +36918,8 @@
         <v>0.71518019279625045</v>
       </c>
       <c r="AY58" s="245"/>
-      <c r="AZ58" s="423"/>
-      <c r="BA58" s="424"/>
+      <c r="AZ58" s="424"/>
+      <c r="BA58" s="425"/>
       <c r="BB58" s="177"/>
       <c r="BC58" s="225" t="s">
         <v>237</v>
@@ -36932,9 +36932,9 @@
         <f t="shared" si="21"/>
         <v>0.71674525695024682</v>
       </c>
-      <c r="BF58" s="423"/>
-      <c r="BG58" s="423"/>
-      <c r="BH58" s="424"/>
+      <c r="BF58" s="424"/>
+      <c r="BG58" s="424"/>
+      <c r="BH58" s="425"/>
       <c r="BI58" s="177"/>
       <c r="BJ58" s="177"/>
       <c r="BK58" s="177"/>
@@ -36955,8 +36955,8 @@
         <v>0</v>
       </c>
       <c r="CF58" s="405"/>
-      <c r="CG58" s="438"/>
-      <c r="CH58" s="439"/>
+      <c r="CG58" s="439"/>
+      <c r="CH58" s="440"/>
       <c r="CI58" s="177"/>
       <c r="CJ58" s="370" t="s">
         <v>269</v>
@@ -36969,9 +36969,9 @@
         <f t="shared" si="19"/>
         <v>2.5218725277602796</v>
       </c>
-      <c r="CM58" s="423"/>
-      <c r="CN58" s="423"/>
-      <c r="CO58" s="424"/>
+      <c r="CM58" s="424"/>
+      <c r="CN58" s="424"/>
+      <c r="CO58" s="425"/>
       <c r="CP58" s="177"/>
       <c r="CQ58" s="177">
         <v>4</v>
@@ -37023,8 +37023,8 @@
         <v>0.30086486181491789</v>
       </c>
       <c r="AY59" s="245"/>
-      <c r="AZ59" s="423"/>
-      <c r="BA59" s="424"/>
+      <c r="AZ59" s="424"/>
+      <c r="BA59" s="425"/>
       <c r="BB59" s="177"/>
       <c r="BC59" s="367" t="s">
         <v>277</v>
@@ -37037,9 +37037,9 @@
         <f t="shared" si="21"/>
         <v>0.30152325925820078</v>
       </c>
-      <c r="BF59" s="423"/>
-      <c r="BG59" s="423"/>
-      <c r="BH59" s="424"/>
+      <c r="BF59" s="424"/>
+      <c r="BG59" s="424"/>
+      <c r="BH59" s="425"/>
       <c r="BI59" s="177"/>
       <c r="BJ59" s="177"/>
       <c r="BK59" s="177"/>
@@ -37060,8 +37060,8 @@
         <v>0</v>
       </c>
       <c r="CF59" s="405"/>
-      <c r="CG59" s="438"/>
-      <c r="CH59" s="439"/>
+      <c r="CG59" s="439"/>
+      <c r="CH59" s="440"/>
       <c r="CI59" s="177"/>
       <c r="CJ59" s="371">
         <v>4</v>
@@ -37074,9 +37074,9 @@
         <f t="shared" si="19"/>
         <v>0.35317056113226808</v>
       </c>
-      <c r="CM59" s="423"/>
-      <c r="CN59" s="423"/>
-      <c r="CO59" s="424"/>
+      <c r="CM59" s="424"/>
+      <c r="CN59" s="424"/>
+      <c r="CO59" s="425"/>
       <c r="CP59" s="177"/>
       <c r="CQ59" s="177"/>
       <c r="CR59" s="177"/>
@@ -37110,8 +37110,8 @@
         <v>0.27511507475681718</v>
       </c>
       <c r="AY60" s="245"/>
-      <c r="AZ60" s="423"/>
-      <c r="BA60" s="424"/>
+      <c r="AZ60" s="424"/>
+      <c r="BA60" s="425"/>
       <c r="BB60" s="177"/>
       <c r="BC60" s="368" t="s">
         <v>278</v>
@@ -37124,9 +37124,9 @@
         <f t="shared" si="21"/>
         <v>0.27915561124698662</v>
       </c>
-      <c r="BF60" s="423"/>
-      <c r="BG60" s="423"/>
-      <c r="BH60" s="424"/>
+      <c r="BF60" s="424"/>
+      <c r="BG60" s="424"/>
+      <c r="BH60" s="425"/>
       <c r="BI60" s="177"/>
       <c r="BJ60" s="177"/>
       <c r="BK60" s="177"/>
@@ -37365,19 +37365,19 @@
       <c r="CV62" s="176"/>
     </row>
     <row r="63" spans="1:100" x14ac:dyDescent="0.25">
-      <c r="B63" s="419" t="s">
+      <c r="B63" s="420" t="s">
         <v>204</v>
       </c>
-      <c r="C63" s="420"/>
-      <c r="D63" s="421"/>
+      <c r="C63" s="421"/>
+      <c r="D63" s="422"/>
       <c r="E63" s="234"/>
       <c r="F63" s="215"/>
       <c r="G63" s="218"/>
-      <c r="I63" s="425" t="s">
+      <c r="I63" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="J63" s="425"/>
-      <c r="K63" s="426"/>
+      <c r="J63" s="426"/>
+      <c r="K63" s="427"/>
       <c r="L63" s="234"/>
       <c r="M63" s="215"/>
       <c r="N63" s="218"/>
@@ -37386,11 +37386,11 @@
         <v>7.2171594761322151E-7</v>
       </c>
       <c r="V63" s="294"/>
-      <c r="AD63" s="425" t="s">
+      <c r="AD63" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="AE63" s="425"/>
-      <c r="AF63" s="426"/>
+      <c r="AE63" s="426"/>
+      <c r="AF63" s="427"/>
       <c r="AG63" s="234"/>
       <c r="AH63" s="215"/>
       <c r="AI63" s="218"/>
@@ -37708,11 +37708,11 @@
       <c r="E67" s="226" t="s">
         <v>222</v>
       </c>
-      <c r="F67" s="423">
+      <c r="F67" s="424">
         <f>K56</f>
         <v>1.0441939649392495E-4</v>
       </c>
-      <c r="G67" s="424">
+      <c r="G67" s="425">
         <f>100*(F67/T56^2)</f>
         <v>91.778572930301721</v>
       </c>
@@ -37727,14 +37727,14 @@
         <f t="shared" si="24"/>
         <v>5.4558054714355046</v>
       </c>
-      <c r="L67" s="422" t="s">
+      <c r="L67" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="M67" s="423">
+      <c r="M67" s="424">
         <f>K57</f>
         <v>1.0313321456626362E-4</v>
       </c>
-      <c r="N67" s="424">
+      <c r="N67" s="425">
         <f>100*M67/J73</f>
         <v>93.429787681750128</v>
       </c>
@@ -37750,14 +37750,14 @@
         <f t="shared" ref="AF67:AF72" si="25">100*(AE67/$AR$56^2)</f>
         <v>6.4647523462191918</v>
       </c>
-      <c r="AG67" s="429" t="s">
+      <c r="AG67" s="430" t="s">
         <v>222</v>
       </c>
-      <c r="AH67" s="430">
+      <c r="AH67" s="431">
         <f>SUM(AE67:AE69)</f>
         <v>9.6790779611514045E-5</v>
       </c>
-      <c r="AI67" s="424">
+      <c r="AI67" s="425">
         <f>100*(AH67/AR56^2)</f>
         <v>79.579366006863964</v>
       </c>
@@ -37775,8 +37775,8 @@
         <v>18.765287879077004</v>
       </c>
       <c r="E68" s="222"/>
-      <c r="F68" s="423"/>
-      <c r="G68" s="424"/>
+      <c r="F68" s="424"/>
+      <c r="G68" s="425"/>
       <c r="I68" s="225" t="s">
         <v>237</v>
       </c>
@@ -37788,9 +37788,9 @@
         <f t="shared" si="24"/>
         <v>19.102899580499283</v>
       </c>
-      <c r="L68" s="423"/>
-      <c r="M68" s="423"/>
-      <c r="N68" s="424"/>
+      <c r="L68" s="424"/>
+      <c r="M68" s="424"/>
+      <c r="N68" s="425"/>
       <c r="V68" s="294"/>
       <c r="AD68" s="225" t="s">
         <v>237</v>
@@ -37803,9 +37803,9 @@
         <f t="shared" si="25"/>
         <v>19.159852688594174</v>
       </c>
-      <c r="AG68" s="423"/>
-      <c r="AH68" s="423"/>
-      <c r="AI68" s="424"/>
+      <c r="AG68" s="424"/>
+      <c r="AH68" s="424"/>
+      <c r="AI68" s="425"/>
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B69" s="225" t="s">
@@ -37820,8 +37820,8 @@
         <v>67.653901788369566</v>
       </c>
       <c r="E69" s="222"/>
-      <c r="F69" s="423"/>
-      <c r="G69" s="424"/>
+      <c r="F69" s="424"/>
+      <c r="G69" s="425"/>
       <c r="I69" s="321" t="s">
         <v>269</v>
       </c>
@@ -37833,9 +37833,9 @@
         <f t="shared" si="24"/>
         <v>68.871082629815348</v>
       </c>
-      <c r="L69" s="423"/>
-      <c r="M69" s="423"/>
-      <c r="N69" s="424"/>
+      <c r="L69" s="424"/>
+      <c r="M69" s="424"/>
+      <c r="N69" s="425"/>
       <c r="V69" s="294"/>
       <c r="AD69" s="225" t="s">
         <v>238</v>
@@ -37848,9 +37848,9 @@
         <f t="shared" si="25"/>
         <v>53.9547609720506</v>
       </c>
-      <c r="AG69" s="423"/>
-      <c r="AH69" s="423"/>
-      <c r="AI69" s="424"/>
+      <c r="AG69" s="424"/>
+      <c r="AH69" s="424"/>
+      <c r="AI69" s="425"/>
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B70" s="222">
@@ -37865,8 +37865,8 @@
         <v>1.8120556158039802</v>
       </c>
       <c r="E70" s="222"/>
-      <c r="F70" s="423"/>
-      <c r="G70" s="424"/>
+      <c r="F70" s="424"/>
+      <c r="G70" s="425"/>
       <c r="I70" s="222">
         <v>4</v>
       </c>
@@ -37878,9 +37878,9 @@
         <f t="shared" si="24"/>
         <v>1.8676616819548555</v>
       </c>
-      <c r="L70" s="423"/>
-      <c r="M70" s="423"/>
-      <c r="N70" s="424"/>
+      <c r="L70" s="424"/>
+      <c r="M70" s="424"/>
+      <c r="N70" s="425"/>
       <c r="R70" s="177">
         <v>4.4650867254515999E-3</v>
       </c>
@@ -37896,9 +37896,9 @@
         <f t="shared" si="25"/>
         <v>2.6468260592379833</v>
       </c>
-      <c r="AG70" s="423"/>
-      <c r="AH70" s="423"/>
-      <c r="AI70" s="424"/>
+      <c r="AG70" s="424"/>
+      <c r="AH70" s="424"/>
+      <c r="AI70" s="425"/>
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.25">
       <c r="B71" s="222">
@@ -38610,11 +38610,11 @@
       <c r="AG95" s="217"/>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D96" s="425" t="s">
+      <c r="D96" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="E96" s="425"/>
-      <c r="F96" s="426"/>
+      <c r="E96" s="426"/>
+      <c r="F96" s="427"/>
       <c r="G96" s="234"/>
       <c r="H96" s="215"/>
       <c r="I96" s="218"/>
@@ -38624,11 +38624,11 @@
         <v>#REF!</v>
       </c>
       <c r="V96" s="294"/>
-      <c r="AB96" s="425" t="s">
+      <c r="AB96" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="AC96" s="425"/>
-      <c r="AD96" s="426"/>
+      <c r="AC96" s="426"/>
+      <c r="AD96" s="427"/>
       <c r="AE96" s="234"/>
       <c r="AF96" s="215"/>
       <c r="AG96" s="218"/>
@@ -38758,14 +38758,14 @@
         <f t="shared" si="26"/>
         <v>16.55501543697498</v>
       </c>
-      <c r="G100" s="422" t="s">
+      <c r="G100" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="H100" s="423">
+      <c r="H100" s="424">
         <f>K89</f>
         <v>3.8179250490251684E-5</v>
       </c>
-      <c r="I100" s="424">
+      <c r="I100" s="425">
         <f>100*(H100/T89^2)</f>
         <v>80.321517916381623</v>
       </c>
@@ -38781,14 +38781,14 @@
         <f t="shared" si="27"/>
         <v>2.758947828953787</v>
       </c>
-      <c r="AE100" s="422" t="s">
+      <c r="AE100" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="AF100" s="423">
+      <c r="AF100" s="424">
         <f>AI89</f>
         <v>4.2889442436319002E-5</v>
       </c>
-      <c r="AG100" s="424">
+      <c r="AG100" s="425">
         <f>100*(AF100/AR89^2)</f>
         <v>63.327277527596081</v>
       </c>
@@ -38805,9 +38805,9 @@
         <f t="shared" si="26"/>
         <v>10.15389754599342</v>
       </c>
-      <c r="G101" s="423"/>
-      <c r="H101" s="423"/>
-      <c r="I101" s="424"/>
+      <c r="G101" s="424"/>
+      <c r="H101" s="424"/>
+      <c r="I101" s="425"/>
       <c r="K101" s="194"/>
       <c r="V101" s="294"/>
       <c r="AB101" s="225" t="s">
@@ -38821,9 +38821,9 @@
         <f t="shared" si="27"/>
         <v>8.1259277470965472</v>
       </c>
-      <c r="AE101" s="423"/>
-      <c r="AF101" s="423"/>
-      <c r="AG101" s="424"/>
+      <c r="AE101" s="424"/>
+      <c r="AF101" s="424"/>
+      <c r="AG101" s="425"/>
       <c r="AI101" s="194"/>
     </row>
     <row r="102" spans="4:36" x14ac:dyDescent="0.25">
@@ -38838,9 +38838,9 @@
         <f t="shared" si="26"/>
         <v>26.308876863293939</v>
       </c>
-      <c r="G102" s="423"/>
-      <c r="H102" s="423"/>
-      <c r="I102" s="424"/>
+      <c r="G102" s="424"/>
+      <c r="H102" s="424"/>
+      <c r="I102" s="425"/>
       <c r="V102" s="294"/>
       <c r="AB102" s="321" t="s">
         <v>264</v>
@@ -38853,9 +38853,9 @@
         <f t="shared" si="27"/>
         <v>25.899528165193797</v>
       </c>
-      <c r="AE102" s="423"/>
-      <c r="AF102" s="423"/>
-      <c r="AG102" s="424"/>
+      <c r="AE102" s="424"/>
+      <c r="AF102" s="424"/>
+      <c r="AG102" s="425"/>
     </row>
     <row r="103" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D103" s="323" t="s">
@@ -38869,9 +38869,9 @@
         <f t="shared" si="26"/>
         <v>27.303728070119281</v>
       </c>
-      <c r="G103" s="423"/>
-      <c r="H103" s="423"/>
-      <c r="I103" s="424"/>
+      <c r="G103" s="424"/>
+      <c r="H103" s="424"/>
+      <c r="I103" s="425"/>
       <c r="V103" s="294"/>
       <c r="AB103" s="323" t="s">
         <v>265</v>
@@ -38884,9 +38884,9 @@
         <f t="shared" si="27"/>
         <v>26.542873786351951</v>
       </c>
-      <c r="AE103" s="423"/>
-      <c r="AF103" s="423"/>
-      <c r="AG103" s="424"/>
+      <c r="AE103" s="424"/>
+      <c r="AF103" s="424"/>
+      <c r="AG103" s="425"/>
     </row>
     <row r="104" spans="4:36" x14ac:dyDescent="0.25">
       <c r="D104" s="222">
@@ -39051,11 +39051,11 @@
       <c r="V111" s="294"/>
     </row>
     <row r="112" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D112" s="425" t="s">
+      <c r="D112" s="426" t="s">
         <v>204</v>
       </c>
-      <c r="E112" s="425"/>
-      <c r="F112" s="426"/>
+      <c r="E112" s="426"/>
+      <c r="F112" s="427"/>
       <c r="G112" s="234"/>
       <c r="H112" s="215"/>
       <c r="I112" s="218"/>
@@ -39130,14 +39130,14 @@
         <f t="shared" si="28"/>
         <v>17.286261715652213</v>
       </c>
-      <c r="G116" s="422" t="s">
+      <c r="G116" s="423" t="s">
         <v>222</v>
       </c>
-      <c r="H116" s="423">
+      <c r="H116" s="424">
         <f>K90</f>
         <v>3.7708979030723827E-5</v>
       </c>
-      <c r="I116" s="424">
+      <c r="I116" s="425">
         <f>100*(H116/T90^2)</f>
         <v>85.311343765947669</v>
       </c>
@@ -39155,9 +39155,9 @@
         <f t="shared" si="28"/>
         <v>10.602402098758384</v>
       </c>
-      <c r="G117" s="423"/>
-      <c r="H117" s="423"/>
-      <c r="I117" s="424"/>
+      <c r="G117" s="424"/>
+      <c r="H117" s="424"/>
+      <c r="I117" s="425"/>
       <c r="V117" s="294"/>
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.25">
@@ -39172,9 +39172,9 @@
         <f t="shared" si="28"/>
         <v>27.470957827561321</v>
       </c>
-      <c r="G118" s="423"/>
-      <c r="H118" s="423"/>
-      <c r="I118" s="424"/>
+      <c r="G118" s="424"/>
+      <c r="H118" s="424"/>
+      <c r="I118" s="425"/>
       <c r="V118" s="294"/>
     </row>
     <row r="119" spans="1:37" x14ac:dyDescent="0.25">
@@ -39190,9 +39190,9 @@
         <f t="shared" si="28"/>
         <v>28.509752288054901</v>
       </c>
-      <c r="G119" s="423"/>
-      <c r="H119" s="423"/>
-      <c r="I119" s="424"/>
+      <c r="G119" s="424"/>
+      <c r="H119" s="424"/>
+      <c r="I119" s="425"/>
       <c r="V119" s="294"/>
     </row>
     <row r="120" spans="1:37" x14ac:dyDescent="0.25">
@@ -40742,10 +40742,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="464" t="s">
+      <c r="B19" s="465" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="464"/>
+      <c r="C19" s="465"/>
       <c r="G19" s="103" t="s">
         <v>139</v>
       </c>
@@ -40800,10 +40800,10 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="464" t="s">
+      <c r="B27" s="465" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="464"/>
+      <c r="C27" s="465"/>
       <c r="F27">
         <v>161.922</v>
       </c>
@@ -42508,17 +42508,17 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="442" t="s">
+      <c r="A6" s="443" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="443"/>
+      <c r="B6" s="444"/>
       <c r="C6" s="130"/>
       <c r="D6" s="130"/>
       <c r="E6" s="131"/>
-      <c r="G6" s="442" t="s">
+      <c r="G6" s="443" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="443"/>
+      <c r="H6" s="444"/>
       <c r="I6" s="130"/>
       <c r="J6" s="130"/>
       <c r="K6" s="131"/>
@@ -42809,7 +42809,7 @@
       <c r="E13" s="128">
         <v>76</v>
       </c>
-      <c r="F13" s="440" t="s">
+      <c r="F13" s="441" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="128">
@@ -42868,7 +42868,7 @@
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
       <c r="D14" s="135"/>
-      <c r="F14" s="440"/>
+      <c r="F14" s="441"/>
       <c r="G14" s="128">
         <v>186</v>
       </c>
@@ -42925,7 +42925,7 @@
       <c r="B15" s="140"/>
       <c r="C15" s="140"/>
       <c r="D15" s="140"/>
-      <c r="F15" s="440"/>
+      <c r="F15" s="441"/>
       <c r="G15" s="128">
         <v>187</v>
       </c>
@@ -42978,13 +42978,13 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="441" t="s">
+      <c r="A16" s="442" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="441"/>
-      <c r="C16" s="441"/>
-      <c r="D16" s="441"/>
-      <c r="F16" s="440"/>
+      <c r="B16" s="442"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="442"/>
+      <c r="F16" s="441"/>
       <c r="G16" s="128">
         <v>188</v>
       </c>
@@ -43050,7 +43050,7 @@
       <c r="D17" s="155">
         <v>1.9E-2</v>
       </c>
-      <c r="F17" s="440"/>
+      <c r="F17" s="441"/>
       <c r="G17" s="128">
         <v>189</v>
       </c>
@@ -43116,7 +43116,7 @@
       <c r="D18" s="155">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F18" s="440"/>
+      <c r="F18" s="441"/>
       <c r="G18" s="128">
         <v>190</v>
       </c>
@@ -43183,7 +43183,7 @@
         <f>SQRT(D17^2+D18^2)</f>
         <v>6.1032778078668512E-2</v>
       </c>
-      <c r="F19" s="440"/>
+      <c r="F19" s="441"/>
       <c r="G19" s="134">
         <v>192</v>
       </c>
@@ -43226,12 +43226,12 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="441" t="s">
+      <c r="A20" s="442" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="441"/>
-      <c r="C20" s="441"/>
-      <c r="D20" s="441"/>
+      <c r="B20" s="442"/>
+      <c r="C20" s="442"/>
+      <c r="D20" s="442"/>
       <c r="F20" s="144"/>
       <c r="N20" s="128">
         <f>SUM(N13:N19)</f>
@@ -43250,10 +43250,10 @@
       <c r="R20" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="441" t="s">
+      <c r="S20" s="442" t="s">
         <v>169</v>
       </c>
-      <c r="T20" s="441"/>
+      <c r="T20" s="442"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="145">
@@ -43315,7 +43315,7 @@
       <c r="E22" s="128">
         <v>77</v>
       </c>
-      <c r="F22" s="440" t="s">
+      <c r="F22" s="441" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="128">
@@ -43376,7 +43376,7 @@
         <f>SQRT((D21*D21)+(D22*D22))</f>
         <v>6.0827625302982198E-2</v>
       </c>
-      <c r="F23" s="440"/>
+      <c r="F23" s="441"/>
       <c r="G23" s="128">
         <v>183</v>
       </c>
@@ -43419,7 +43419,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F24" s="440"/>
+      <c r="F24" s="441"/>
       <c r="G24" s="128">
         <v>184</v>
       </c>
@@ -43462,7 +43462,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F25" s="440"/>
+      <c r="F25" s="441"/>
       <c r="G25" s="128">
         <v>185</v>
       </c>
@@ -43510,7 +43510,7 @@
         <f>SQRT(0.000025)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="440"/>
+      <c r="F26" s="441"/>
       <c r="G26" s="128">
         <v>186</v>
       </c>
@@ -43556,7 +43556,7 @@
       <c r="A27" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="440"/>
+      <c r="F27" s="441"/>
       <c r="G27" s="128">
         <v>187</v>
       </c>
@@ -43605,7 +43605,7 @@
       <c r="C28" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="440"/>
+      <c r="F28" s="441"/>
       <c r="G28" s="128">
         <v>188</v>
       </c>
@@ -43660,7 +43660,7 @@
       <c r="D29" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="440"/>
+      <c r="F29" s="441"/>
       <c r="G29" s="128">
         <v>189</v>
       </c>
@@ -43704,7 +43704,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" s="142"/>
-      <c r="F30" s="440"/>
+      <c r="F30" s="441"/>
       <c r="G30" s="128">
         <v>191</v>
       </c>
@@ -43760,7 +43760,7 @@
         <f>SQRT(0.000025 + 7.21*10^(-8)*(B12*I4)^2)</f>
         <v>1.1009439679557396E-2</v>
       </c>
-      <c r="F31" s="440"/>
+      <c r="F31" s="441"/>
       <c r="G31" s="134">
         <v>193</v>
       </c>
@@ -43883,7 +43883,7 @@
       <c r="E34" s="128">
         <v>74</v>
       </c>
-      <c r="F34" s="440" t="s">
+      <c r="F34" s="441" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="128">
@@ -43914,7 +43914,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" s="440"/>
+      <c r="F35" s="441"/>
       <c r="G35" s="128">
         <v>182</v>
       </c>
@@ -43951,7 +43951,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="440"/>
+      <c r="F36" s="441"/>
       <c r="G36" s="128">
         <v>183</v>
       </c>
@@ -43979,7 +43979,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" s="440"/>
+      <c r="F37" s="441"/>
       <c r="G37" s="128">
         <v>184</v>
       </c>
@@ -44004,7 +44004,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F38" s="440"/>
+      <c r="F38" s="441"/>
       <c r="G38" s="134">
         <v>186</v>
       </c>
@@ -44030,10 +44030,10 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F39" s="144"/>
-      <c r="S39" s="441" t="s">
+      <c r="S39" s="442" t="s">
         <v>170</v>
       </c>
-      <c r="T39" s="441"/>
+      <c r="T39" s="442"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="128" t="s">
@@ -44083,7 +44083,7 @@
       <c r="E41" s="128">
         <v>75</v>
       </c>
-      <c r="F41" s="440" t="s">
+      <c r="F41" s="441" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="128">
@@ -44133,7 +44133,7 @@
       <c r="D42" s="128">
         <v>0.03</v>
       </c>
-      <c r="F42" s="440"/>
+      <c r="F42" s="441"/>
       <c r="G42" s="134">
         <v>187</v>
       </c>
@@ -44244,7 +44244,7 @@
       <c r="E45" s="128">
         <v>78</v>
       </c>
-      <c r="F45" s="440" t="s">
+      <c r="F45" s="441" t="s">
         <v>75</v>
       </c>
       <c r="G45" s="128">
@@ -44290,7 +44290,7 @@
       <c r="A46" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="440"/>
+      <c r="F46" s="441"/>
       <c r="G46" s="128">
         <v>184</v>
       </c>
@@ -44344,7 +44344,7 @@
       <c r="D47" s="128">
         <v>0.03</v>
       </c>
-      <c r="F47" s="440"/>
+      <c r="F47" s="441"/>
       <c r="G47" s="128">
         <v>185</v>
       </c>
@@ -44398,7 +44398,7 @@
       <c r="D48" s="128">
         <v>0.03</v>
       </c>
-      <c r="F48" s="440"/>
+      <c r="F48" s="441"/>
       <c r="G48" s="128">
         <v>186</v>
       </c>
@@ -44454,7 +44454,7 @@
       <c r="D49" s="128">
         <v>0.01</v>
       </c>
-      <c r="F49" s="440"/>
+      <c r="F49" s="441"/>
       <c r="G49" s="128">
         <v>187</v>
       </c>
@@ -44503,7 +44503,7 @@
       <c r="X49" s="137"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="440"/>
+      <c r="F50" s="441"/>
       <c r="G50" s="128">
         <v>188</v>
       </c>
@@ -44551,7 +44551,7 @@
       <c r="A51" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="440"/>
+      <c r="F51" s="441"/>
       <c r="G51" s="128">
         <v>189</v>
       </c>
@@ -44605,7 +44605,7 @@
       <c r="E52" s="159" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="440"/>
+      <c r="F52" s="441"/>
       <c r="G52" s="128">
         <v>190</v>
       </c>
@@ -44654,7 +44654,7 @@
       <c r="E53" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="440"/>
+      <c r="F53" s="441"/>
       <c r="G53" s="128">
         <v>191</v>
       </c>
@@ -44707,7 +44707,7 @@
       <c r="E54" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="F54" s="440"/>
+      <c r="F54" s="441"/>
       <c r="G54" s="128">
         <v>192</v>
       </c>
@@ -44741,7 +44741,7 @@
       <c r="X54" s="137"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="440"/>
+      <c r="F55" s="441"/>
       <c r="G55" s="128">
         <v>193</v>
       </c>
@@ -44771,7 +44771,7 @@
       <c r="X55" s="137"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="440"/>
+      <c r="F56" s="441"/>
       <c r="G56" s="134">
         <v>194</v>
       </c>
@@ -47016,7 +47016,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47155,7 +47155,7 @@
         <v>1.1559999999999998E-13</v>
       </c>
       <c r="R6" s="12">
-        <f t="shared" ref="R6:R12" si="1">(N7*L7/$N$14)^2</f>
+        <f t="shared" ref="R6:R11" si="1">(N7*L7/$N$14)^2</f>
         <v>1.9360000000000008E-13</v>
       </c>
     </row>
@@ -47176,7 +47176,7 @@
       <c r="E7" s="12">
         <v>76</v>
       </c>
-      <c r="F7" s="444" t="s">
+      <c r="F7" s="445" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="12">
@@ -47230,7 +47230,7 @@
         <f>0.005</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="444"/>
+      <c r="F8" s="445"/>
       <c r="G8" s="12">
         <v>186</v>
       </c>
@@ -47276,7 +47276,7 @@
         <f>(D8*C21+A10*K2)/K2</f>
         <v>3.5188987892209855</v>
       </c>
-      <c r="F9" s="444"/>
+      <c r="F9" s="445"/>
       <c r="G9" s="12">
         <v>187</v>
       </c>
@@ -47324,7 +47324,7 @@
       <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="444"/>
+      <c r="F10" s="445"/>
       <c r="G10" s="12">
         <v>188</v>
       </c>
@@ -47363,7 +47363,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F11" s="444"/>
+      <c r="F11" s="445"/>
       <c r="G11" s="12">
         <v>189</v>
       </c>
@@ -47408,7 +47408,7 @@
       <c r="C12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="444"/>
+      <c r="F12" s="445"/>
       <c r="G12" s="12">
         <v>190</v>
       </c>
@@ -47442,7 +47442,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="12">
-        <f t="shared" si="1"/>
+        <f>(N13*L13/$N$14)^2</f>
         <v>3.7417689000000008E-7</v>
       </c>
     </row>
@@ -47459,7 +47459,7 @@
       <c r="D13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="444"/>
+      <c r="F13" s="445"/>
       <c r="G13" s="14">
         <v>192</v>
       </c>
@@ -47581,7 +47581,7 @@
       <c r="E16" s="12">
         <v>77</v>
       </c>
-      <c r="F16" s="444" t="s">
+      <c r="F16" s="445" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="12">
@@ -47632,7 +47632,7 @@
       <c r="B17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="444"/>
+      <c r="F17" s="445"/>
       <c r="G17" s="12">
         <v>183</v>
       </c>
@@ -47686,7 +47686,7 @@
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="444"/>
+      <c r="F18" s="445"/>
       <c r="G18" s="12">
         <v>184</v>
       </c>
@@ -47729,7 +47729,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F19" s="444"/>
+      <c r="F19" s="445"/>
       <c r="G19" s="12">
         <v>185</v>
       </c>
@@ -47772,7 +47772,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F20" s="444"/>
+      <c r="F20" s="445"/>
       <c r="G20" s="12">
         <v>186</v>
       </c>
@@ -47824,7 +47824,7 @@
       <c r="D21" s="12">
         <v>-3723</v>
       </c>
-      <c r="F21" s="444"/>
+      <c r="F21" s="445"/>
       <c r="G21" s="12">
         <v>187</v>
       </c>
@@ -47870,7 +47870,7 @@
       <c r="C22" s="12">
         <v>-3741.68</v>
       </c>
-      <c r="F22" s="444"/>
+      <c r="F22" s="445"/>
       <c r="G22" s="12">
         <v>188</v>
       </c>
@@ -47917,7 +47917,7 @@
         <f>A21*(-1)</f>
         <v>0.11574376744002442</v>
       </c>
-      <c r="F23" s="444"/>
+      <c r="F23" s="445"/>
       <c r="G23" s="12">
         <v>189</v>
       </c>
@@ -47960,7 +47960,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="444"/>
+      <c r="F24" s="445"/>
       <c r="G24" s="12">
         <v>191</v>
       </c>
@@ -48011,7 +48011,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F25" s="444"/>
+      <c r="F25" s="445"/>
       <c r="G25" s="14">
         <v>193</v>
       </c>
@@ -48125,7 +48125,7 @@
       <c r="E28" s="12">
         <v>74</v>
       </c>
-      <c r="F28" s="444" t="s">
+      <c r="F28" s="445" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="12">
@@ -48156,7 +48156,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F29" s="444"/>
+      <c r="F29" s="445"/>
       <c r="G29" s="12">
         <v>182</v>
       </c>
@@ -48193,7 +48193,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F30" s="444"/>
+      <c r="F30" s="445"/>
       <c r="G30" s="12">
         <v>183</v>
       </c>
@@ -48221,7 +48221,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="444"/>
+      <c r="F31" s="445"/>
       <c r="G31" s="12">
         <v>184</v>
       </c>
@@ -48246,7 +48246,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F32" s="444"/>
+      <c r="F32" s="445"/>
       <c r="G32" s="14">
         <v>186</v>
       </c>
@@ -48300,7 +48300,7 @@
       <c r="E35" s="12">
         <v>75</v>
       </c>
-      <c r="F35" s="444" t="s">
+      <c r="F35" s="445" t="s">
         <v>74</v>
       </c>
       <c r="G35" s="12">
@@ -48327,7 +48327,7 @@
       </c>
     </row>
     <row r="36" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="444"/>
+      <c r="F36" s="445"/>
       <c r="G36" s="14">
         <v>187</v>
       </c>
@@ -48355,12 +48355,12 @@
       <c r="F37" s="18"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="Q37" s="445"/>
-      <c r="R37" s="446"/>
-      <c r="S37" s="446"/>
-      <c r="T37" s="446"/>
-      <c r="U37" s="446"/>
-      <c r="V37" s="446"/>
+      <c r="Q37" s="446"/>
+      <c r="R37" s="447"/>
+      <c r="S37" s="447"/>
+      <c r="T37" s="447"/>
+      <c r="U37" s="447"/>
+      <c r="V37" s="447"/>
     </row>
     <row r="38" spans="5:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G38" s="14" t="s">
@@ -48399,7 +48399,7 @@
       <c r="E39" s="12">
         <v>78</v>
       </c>
-      <c r="F39" s="444" t="s">
+      <c r="F39" s="445" t="s">
         <v>75</v>
       </c>
       <c r="G39" s="12">
@@ -48436,7 +48436,7 @@
       <c r="X39" s="102"/>
     </row>
     <row r="40" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F40" s="444"/>
+      <c r="F40" s="445"/>
       <c r="G40" s="12">
         <v>184</v>
       </c>
@@ -48471,7 +48471,7 @@
       <c r="X40" s="102"/>
     </row>
     <row r="41" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="444"/>
+      <c r="F41" s="445"/>
       <c r="G41" s="12">
         <v>185</v>
       </c>
@@ -48506,7 +48506,7 @@
       <c r="X41" s="102"/>
     </row>
     <row r="42" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="444"/>
+      <c r="F42" s="445"/>
       <c r="G42" s="12">
         <v>186</v>
       </c>
@@ -48541,7 +48541,7 @@
       <c r="X42" s="102"/>
     </row>
     <row r="43" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="444"/>
+      <c r="F43" s="445"/>
       <c r="G43" s="12">
         <v>187</v>
       </c>
@@ -48576,7 +48576,7 @@
       <c r="X43" s="102"/>
     </row>
     <row r="44" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="444"/>
+      <c r="F44" s="445"/>
       <c r="G44" s="12">
         <v>188</v>
       </c>
@@ -48611,7 +48611,7 @@
       <c r="X44" s="102"/>
     </row>
     <row r="45" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F45" s="444"/>
+      <c r="F45" s="445"/>
       <c r="G45" s="12">
         <v>189</v>
       </c>
@@ -48646,7 +48646,7 @@
       <c r="X45" s="102"/>
     </row>
     <row r="46" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="444"/>
+      <c r="F46" s="445"/>
       <c r="G46" s="12">
         <v>190</v>
       </c>
@@ -48681,7 +48681,7 @@
       <c r="X46" s="102"/>
     </row>
     <row r="47" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="444"/>
+      <c r="F47" s="445"/>
       <c r="G47" s="12">
         <v>191</v>
       </c>
@@ -48716,7 +48716,7 @@
       <c r="X47" s="102"/>
     </row>
     <row r="48" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="444"/>
+      <c r="F48" s="445"/>
       <c r="G48" s="12">
         <v>192</v>
       </c>
@@ -48751,7 +48751,7 @@
       <c r="X48" s="102"/>
     </row>
     <row r="49" spans="6:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="444"/>
+      <c r="F49" s="445"/>
       <c r="G49" s="12">
         <v>193</v>
       </c>
@@ -48786,7 +48786,7 @@
       <c r="X49" s="102"/>
     </row>
     <row r="50" spans="6:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="444"/>
+      <c r="F50" s="445"/>
       <c r="G50" s="14">
         <v>194</v>
       </c>
@@ -48943,17 +48943,17 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="447" t="s">
+      <c r="A6" s="448" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="448"/>
+      <c r="B6" s="449"/>
       <c r="C6" s="108"/>
       <c r="D6" s="108"/>
       <c r="E6" s="109"/>
-      <c r="G6" s="447" t="s">
+      <c r="G6" s="448" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="449"/>
+      <c r="H6" s="450"/>
       <c r="I6" s="108"/>
       <c r="J6" s="108"/>
       <c r="K6" s="109"/>
@@ -49167,7 +49167,7 @@
       <c r="E13" s="12">
         <v>76</v>
       </c>
-      <c r="F13" s="444" t="s">
+      <c r="F13" s="445" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="12">
@@ -49212,7 +49212,7 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="117"/>
-      <c r="F14" s="444"/>
+      <c r="F14" s="445"/>
       <c r="G14" s="12">
         <v>186</v>
       </c>
@@ -49255,7 +49255,7 @@
       <c r="B15" s="119"/>
       <c r="C15" s="119"/>
       <c r="D15" s="119"/>
-      <c r="F15" s="444"/>
+      <c r="F15" s="445"/>
       <c r="G15" s="12">
         <v>187</v>
       </c>
@@ -49294,13 +49294,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="450" t="s">
+      <c r="A16" s="451" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="451"/>
-      <c r="C16" s="451"/>
-      <c r="D16" s="451"/>
-      <c r="F16" s="444"/>
+      <c r="B16" s="452"/>
+      <c r="C16" s="452"/>
+      <c r="D16" s="452"/>
+      <c r="F16" s="445"/>
       <c r="G16" s="12">
         <v>188</v>
       </c>
@@ -49351,7 +49351,7 @@
       <c r="D17" s="12">
         <v>0.03</v>
       </c>
-      <c r="F17" s="444"/>
+      <c r="F17" s="445"/>
       <c r="G17" s="12">
         <v>189</v>
       </c>
@@ -49402,7 +49402,7 @@
       <c r="D18" s="12">
         <v>0.03</v>
       </c>
-      <c r="F18" s="444"/>
+      <c r="F18" s="445"/>
       <c r="G18" s="12">
         <v>190</v>
       </c>
@@ -49457,7 +49457,7 @@
         <f>SQRT((D17*D17)+(D18*D18))</f>
         <v>4.2426406871192854E-2</v>
       </c>
-      <c r="F19" s="444"/>
+      <c r="F19" s="445"/>
       <c r="G19" s="14">
         <v>192</v>
       </c>
@@ -49500,12 +49500,12 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="450" t="s">
+      <c r="A20" s="451" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="451"/>
-      <c r="C20" s="451"/>
-      <c r="D20" s="451"/>
+      <c r="B20" s="452"/>
+      <c r="C20" s="452"/>
+      <c r="D20" s="452"/>
       <c r="F20" s="93"/>
       <c r="N20" s="12">
         <f>SUM(N13:N19)</f>
@@ -49524,10 +49524,10 @@
       <c r="R20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="S20" s="450" t="s">
+      <c r="S20" s="451" t="s">
         <v>169</v>
       </c>
-      <c r="T20" s="451"/>
+      <c r="T20" s="452"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -49589,7 +49589,7 @@
       <c r="E22" s="12">
         <v>77</v>
       </c>
-      <c r="F22" s="444" t="s">
+      <c r="F22" s="445" t="s">
         <v>67</v>
       </c>
       <c r="G22" s="12">
@@ -49650,7 +49650,7 @@
         <f>SQRT((D21*D21)+(D22*D22))</f>
         <v>6.0827625302982198E-2</v>
       </c>
-      <c r="F23" s="444"/>
+      <c r="F23" s="445"/>
       <c r="G23" s="12">
         <v>183</v>
       </c>
@@ -49693,7 +49693,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F24" s="444"/>
+      <c r="F24" s="445"/>
       <c r="G24" s="12">
         <v>184</v>
       </c>
@@ -49736,7 +49736,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F25" s="444"/>
+      <c r="F25" s="445"/>
       <c r="G25" s="12">
         <v>185</v>
       </c>
@@ -49784,7 +49784,7 @@
         <f>SQRT(0.000025)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="444"/>
+      <c r="F26" s="445"/>
       <c r="G26" s="12">
         <v>186</v>
       </c>
@@ -49830,7 +49830,7 @@
       <c r="A27" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="444"/>
+      <c r="F27" s="445"/>
       <c r="G27" s="12">
         <v>187</v>
       </c>
@@ -49879,7 +49879,7 @@
       <c r="C28" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="444"/>
+      <c r="F28" s="445"/>
       <c r="G28" s="12">
         <v>188</v>
       </c>
@@ -49934,7 +49934,7 @@
       <c r="D29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="444"/>
+      <c r="F29" s="445"/>
       <c r="G29" s="12">
         <v>189</v>
       </c>
@@ -49978,7 +49978,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
-      <c r="F30" s="444"/>
+      <c r="F30" s="445"/>
       <c r="G30" s="12">
         <v>191</v>
       </c>
@@ -50030,7 +50030,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
-      <c r="F31" s="444"/>
+      <c r="F31" s="445"/>
       <c r="G31" s="14">
         <v>193</v>
       </c>
@@ -50155,7 +50155,7 @@
       <c r="E34" s="12">
         <v>74</v>
       </c>
-      <c r="F34" s="444" t="s">
+      <c r="F34" s="445" t="s">
         <v>73</v>
       </c>
       <c r="G34" s="12">
@@ -50186,7 +50186,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F35" s="444"/>
+      <c r="F35" s="445"/>
       <c r="G35" s="12">
         <v>182</v>
       </c>
@@ -50223,7 +50223,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="444"/>
+      <c r="F36" s="445"/>
       <c r="G36" s="12">
         <v>183</v>
       </c>
@@ -50251,7 +50251,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F37" s="444"/>
+      <c r="F37" s="445"/>
       <c r="G37" s="12">
         <v>184</v>
       </c>
@@ -50285,7 +50285,7 @@
       <c r="D38" s="191">
         <v>5.0365698440762323E-2</v>
       </c>
-      <c r="F38" s="444"/>
+      <c r="F38" s="445"/>
       <c r="G38" s="14">
         <v>186</v>
       </c>
@@ -50317,10 +50317,10 @@
         <v>5.0000000648899997E-3</v>
       </c>
       <c r="F39" s="93"/>
-      <c r="S39" s="450" t="s">
+      <c r="S39" s="451" t="s">
         <v>170</v>
       </c>
-      <c r="T39" s="451"/>
+      <c r="T39" s="452"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G40" s="14" t="s">
@@ -50361,7 +50361,7 @@
       <c r="E41" s="12">
         <v>75</v>
       </c>
-      <c r="F41" s="444" t="s">
+      <c r="F41" s="445" t="s">
         <v>74</v>
       </c>
       <c r="G41" s="12">
@@ -50399,7 +50399,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F42" s="444"/>
+      <c r="F42" s="445"/>
       <c r="G42" s="14">
         <v>187</v>
       </c>
@@ -50494,7 +50494,7 @@
       <c r="E45" s="12">
         <v>78</v>
       </c>
-      <c r="F45" s="444" t="s">
+      <c r="F45" s="445" t="s">
         <v>75</v>
       </c>
       <c r="G45" s="12">
@@ -50537,7 +50537,7 @@
       <c r="X45" s="102"/>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="444"/>
+      <c r="F46" s="445"/>
       <c r="G46" s="12">
         <v>184</v>
       </c>
@@ -50578,7 +50578,7 @@
       <c r="X46" s="102"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="444"/>
+      <c r="F47" s="445"/>
       <c r="G47" s="12">
         <v>185</v>
       </c>
@@ -50619,7 +50619,7 @@
       <c r="X47" s="102"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="444"/>
+      <c r="F48" s="445"/>
       <c r="G48" s="12">
         <v>186</v>
       </c>
@@ -50660,7 +50660,7 @@
       <c r="X48" s="102"/>
     </row>
     <row r="49" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="444"/>
+      <c r="F49" s="445"/>
       <c r="G49" s="12">
         <v>187</v>
       </c>
@@ -50709,7 +50709,7 @@
       <c r="X49" s="102"/>
     </row>
     <row r="50" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="444"/>
+      <c r="F50" s="445"/>
       <c r="G50" s="12">
         <v>188</v>
       </c>
@@ -50754,7 +50754,7 @@
       <c r="X50" s="102"/>
     </row>
     <row r="51" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="444"/>
+      <c r="F51" s="445"/>
       <c r="G51" s="12">
         <v>189</v>
       </c>
@@ -50792,7 +50792,7 @@
       <c r="X51" s="102"/>
     </row>
     <row r="52" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="444"/>
+      <c r="F52" s="445"/>
       <c r="G52" s="12">
         <v>190</v>
       </c>
@@ -50825,7 +50825,7 @@
       <c r="X52" s="102"/>
     </row>
     <row r="53" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="444"/>
+      <c r="F53" s="445"/>
       <c r="G53" s="12">
         <v>191</v>
       </c>
@@ -50859,7 +50859,7 @@
       <c r="X53" s="102"/>
     </row>
     <row r="54" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="444"/>
+      <c r="F54" s="445"/>
       <c r="G54" s="12">
         <v>192</v>
       </c>
@@ -50893,7 +50893,7 @@
       <c r="X54" s="102"/>
     </row>
     <row r="55" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F55" s="444"/>
+      <c r="F55" s="445"/>
       <c r="G55" s="12">
         <v>193</v>
       </c>
@@ -50923,7 +50923,7 @@
       <c r="X55" s="102"/>
     </row>
     <row r="56" spans="5:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="444"/>
+      <c r="F56" s="445"/>
       <c r="G56" s="14">
         <v>194</v>
       </c>
@@ -51443,19 +51443,19 @@
   <sheetData>
     <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="452" t="s">
+      <c r="B8" s="453" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="453"/>
-      <c r="D8" s="453"/>
-      <c r="E8" s="453"/>
-      <c r="F8" s="453"/>
+      <c r="C8" s="454"/>
+      <c r="D8" s="454"/>
+      <c r="E8" s="454"/>
+      <c r="F8" s="454"/>
       <c r="G8" s="48"/>
-      <c r="I8" s="456" t="s">
+      <c r="I8" s="457" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="456"/>
-      <c r="K8" s="456"/>
+      <c r="J8" s="457"/>
+      <c r="K8" s="457"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="49"/>
@@ -51562,13 +51562,13 @@
       <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="454" t="s">
+      <c r="B16" s="455" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="455"/>
-      <c r="D16" s="455"/>
-      <c r="E16" s="455"/>
-      <c r="F16" s="455"/>
+      <c r="C16" s="456"/>
+      <c r="D16" s="456"/>
+      <c r="E16" s="456"/>
+      <c r="F16" s="456"/>
       <c r="G16" s="51"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -51646,26 +51646,26 @@
     </row>
     <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="452" t="s">
+      <c r="B25" s="453" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="453"/>
-      <c r="D25" s="453"/>
-      <c r="E25" s="453"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="457"/>
+      <c r="C25" s="454"/>
+      <c r="D25" s="454"/>
+      <c r="E25" s="454"/>
+      <c r="F25" s="454"/>
+      <c r="G25" s="458"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="49"/>
-      <c r="C26" s="455" t="s">
+      <c r="C26" s="456" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="455"/>
+      <c r="D26" s="456"/>
       <c r="E26" s="50"/>
-      <c r="F26" s="455" t="s">
+      <c r="F26" s="456" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="458"/>
+      <c r="G26" s="459"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="49" t="s">
@@ -52328,20 +52328,20 @@
       <c r="G17" s="27">
         <v>24080.30006036281</v>
       </c>
-      <c r="L17" s="462" t="s">
+      <c r="L17" s="463" t="s">
         <v>135</v>
       </c>
-      <c r="M17" s="463"/>
-      <c r="N17" s="463"/>
-      <c r="O17" s="463"/>
-      <c r="P17" s="463"/>
-      <c r="R17" s="462" t="s">
+      <c r="M17" s="464"/>
+      <c r="N17" s="464"/>
+      <c r="O17" s="464"/>
+      <c r="P17" s="464"/>
+      <c r="R17" s="463" t="s">
         <v>136</v>
       </c>
-      <c r="S17" s="463"/>
-      <c r="T17" s="463"/>
-      <c r="U17" s="463"/>
-      <c r="V17" s="463"/>
+      <c r="S17" s="464"/>
+      <c r="T17" s="464"/>
+      <c r="U17" s="464"/>
+      <c r="V17" s="464"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -52362,20 +52362,20 @@
       <c r="G18" s="27">
         <v>15506.416288443961</v>
       </c>
-      <c r="L18" s="459" t="s">
+      <c r="L18" s="460" t="s">
         <v>133</v>
       </c>
-      <c r="M18" s="460"/>
-      <c r="N18" s="460"/>
-      <c r="O18" s="460"/>
-      <c r="P18" s="461"/>
-      <c r="R18" s="459" t="s">
+      <c r="M18" s="461"/>
+      <c r="N18" s="461"/>
+      <c r="O18" s="461"/>
+      <c r="P18" s="462"/>
+      <c r="R18" s="460" t="s">
         <v>133</v>
       </c>
-      <c r="S18" s="460"/>
-      <c r="T18" s="460"/>
-      <c r="U18" s="460"/>
-      <c r="V18" s="461"/>
+      <c r="S18" s="461"/>
+      <c r="T18" s="461"/>
+      <c r="U18" s="461"/>
+      <c r="V18" s="462"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
@@ -52732,20 +52732,20 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="459" t="s">
+      <c r="L30" s="460" t="s">
         <v>134</v>
       </c>
-      <c r="M30" s="460"/>
-      <c r="N30" s="460"/>
-      <c r="O30" s="460"/>
-      <c r="P30" s="461"/>
-      <c r="R30" s="459" t="s">
+      <c r="M30" s="461"/>
+      <c r="N30" s="461"/>
+      <c r="O30" s="461"/>
+      <c r="P30" s="462"/>
+      <c r="R30" s="460" t="s">
         <v>134</v>
       </c>
-      <c r="S30" s="460"/>
-      <c r="T30" s="460"/>
-      <c r="U30" s="460"/>
-      <c r="V30" s="461"/>
+      <c r="S30" s="461"/>
+      <c r="T30" s="461"/>
+      <c r="U30" s="461"/>
+      <c r="V30" s="462"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
@@ -54709,10 +54709,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="464" t="s">
+      <c r="B19" s="465" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="464"/>
+      <c r="C19" s="465"/>
       <c r="G19" s="103" t="s">
         <v>139</v>
       </c>
@@ -54767,10 +54767,10 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="464" t="s">
+      <c r="B27" s="465" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="464"/>
+      <c r="C27" s="465"/>
       <c r="F27">
         <v>161.922</v>
       </c>
